--- a/Data/Vinmonopolet/demand_data.xlsx
+++ b/Data/Vinmonopolet/demand_data.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>724290</v>
+        <v>724.29</v>
       </c>
       <c r="E2">
         <v>454</v>
@@ -455,7 +455,7 @@
         <v>34</v>
       </c>
       <c r="G2">
-        <v>13230656.862</v>
+        <v>13230.656862</v>
       </c>
       <c r="H2">
         <v>59.91191577968923</v>
@@ -467,7 +467,7 @@
         <v>0.4090565547392397</v>
       </c>
       <c r="K2">
-        <v>0.09817545458310896</v>
+        <v>71.10749999999999</v>
       </c>
       <c r="L2">
         <v>6718.96</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>15375</v>
+        <v>15.375</v>
       </c>
       <c r="E3">
         <v>433</v>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>241781.89</v>
+        <v>241.78189</v>
       </c>
       <c r="H3">
         <v>58.45234718373063</v>
@@ -517,7 +517,7 @@
         <v>0.04549239927445296</v>
       </c>
       <c r="K3">
-        <v>0.03257471317909359</v>
+        <v>0.5008362151285639</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>150123</v>
+        <v>150.123</v>
       </c>
       <c r="E4">
         <v>262</v>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>2474922.405</v>
+        <v>2474.922405</v>
       </c>
       <c r="H4">
         <v>58.96898693374438</v>
@@ -567,7 +567,7 @@
         <v>0.1199027527267784</v>
       </c>
       <c r="K4">
-        <v>0.03257471317909359</v>
+        <v>4.890213666585066</v>
       </c>
       <c r="L4">
         <v>1160.696</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>38441</v>
+        <v>38.441</v>
       </c>
       <c r="E5">
         <v>73</v>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>461136.7439999999</v>
+        <v>461.1367439999999</v>
       </c>
       <c r="H5">
         <v>59.41013334749567</v>
@@ -617,7 +617,7 @@
         <v>0.1378189631489157</v>
       </c>
       <c r="K5">
-        <v>0.03257471317909359</v>
+        <v>1.252204549317537</v>
       </c>
       <c r="L5">
         <v>254.352</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>84908</v>
+        <v>84.908</v>
       </c>
       <c r="E6">
         <v>1041</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1387739.68</v>
+        <v>1387.73968</v>
       </c>
       <c r="H6">
         <v>58.8533245486347</v>
@@ -667,7 +667,7 @@
         <v>0.6002611839795804</v>
       </c>
       <c r="K6">
-        <v>0.03257471317909359</v>
+        <v>2.765853746610479</v>
       </c>
       <c r="L6">
         <v>234.743</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>3371</v>
+        <v>3.371</v>
       </c>
       <c r="E7">
         <v>295</v>
@@ -717,7 +717,7 @@
         <v>20.88030153007668</v>
       </c>
       <c r="K7">
-        <v>0.03257471317909359</v>
+        <v>0.1098093581267245</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>3259</v>
+        <v>3.259</v>
       </c>
       <c r="E8">
         <v>408</v>
@@ -767,7 +767,7 @@
         <v>19.05946018257089</v>
       </c>
       <c r="K8">
-        <v>0.03257471317909359</v>
+        <v>0.106160990250666</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>2905</v>
+        <v>2.905</v>
       </c>
       <c r="E9">
         <v>651</v>
@@ -817,7 +817,7 @@
         <v>20.37885211794955</v>
       </c>
       <c r="K9">
-        <v>0.03257471317909359</v>
+        <v>0.09462954178526688</v>
       </c>
       <c r="L9">
         <v>6.54</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>20067</v>
+        <v>20.067</v>
       </c>
       <c r="E10">
         <v>258</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>170139.717</v>
+        <v>170.139717</v>
       </c>
       <c r="H10">
         <v>58.616119446094</v>
@@ -867,7 +867,7 @@
         <v>5.796439300378065</v>
       </c>
       <c r="K10">
-        <v>0.03257471317909359</v>
+        <v>0.6536767693648711</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>21186</v>
+        <v>21.186</v>
       </c>
       <c r="E11">
         <v>113</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>353136.1409999999</v>
+        <v>353.1361409999999</v>
       </c>
       <c r="H11">
         <v>58.77661664176302</v>
@@ -917,7 +917,7 @@
         <v>0.4044663683033954</v>
       </c>
       <c r="K11">
-        <v>0.03257471317909359</v>
+        <v>0.6901278734122768</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>20157</v>
+        <v>20.157</v>
       </c>
       <c r="E12">
         <v>183</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>300424.384</v>
+        <v>300.424384</v>
       </c>
       <c r="H12">
         <v>58.73634999723195</v>
@@ -967,7 +967,7 @@
         <v>0.7532203966546165</v>
       </c>
       <c r="K12">
-        <v>0.03257471317909359</v>
+        <v>0.6566084935509895</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>12536</v>
+        <v>12.536</v>
       </c>
       <c r="E13">
         <v>618</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>242054.968</v>
+        <v>242.054968</v>
       </c>
       <c r="H13">
         <v>58.76477497611682</v>
@@ -1017,7 +1017,7 @@
         <v>0.788431976585982</v>
       </c>
       <c r="K13">
-        <v>0.03257471317909359</v>
+        <v>0.4083566044131172</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>29153</v>
+        <v>29.153</v>
       </c>
       <c r="E14">
         <v>69</v>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>473452.615</v>
+        <v>473.452615</v>
       </c>
       <c r="H14">
         <v>58.88805558607942</v>
@@ -1067,7 +1067,7 @@
         <v>0.720241984126146</v>
       </c>
       <c r="K14">
-        <v>0.03257471317909359</v>
+        <v>0.9496506133101154</v>
       </c>
       <c r="L14">
         <v>232.445</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>11795</v>
+        <v>11.795</v>
       </c>
       <c r="E15">
         <v>25</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>269547.2610000001</v>
+        <v>269.5472610000001</v>
       </c>
       <c r="H15">
         <v>58.9987604858207</v>
@@ -1117,7 +1117,7 @@
         <v>0.1820090449942827</v>
       </c>
       <c r="K15">
-        <v>0.03257471317909359</v>
+        <v>0.3842187419474089</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>13813</v>
+        <v>13.813</v>
       </c>
       <c r="E16">
         <v>262</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>198898.029</v>
+        <v>198.898029</v>
       </c>
       <c r="H16">
         <v>59.02352782026483</v>
@@ -1167,7 +1167,7 @@
         <v>0.2359356560596752</v>
       </c>
       <c r="K16">
-        <v>0.03257471317909359</v>
+        <v>0.4499545131428198</v>
       </c>
       <c r="L16">
         <v>97.41500000000001</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>2681</v>
+        <v>2.681</v>
       </c>
       <c r="E17">
         <v>1068</v>
@@ -1217,7 +1217,7 @@
         <v>25.19650255225295</v>
       </c>
       <c r="K17">
-        <v>0.03257471317909359</v>
+        <v>0.08733280603314991</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>3939</v>
+        <v>3.939</v>
       </c>
       <c r="E18">
         <v>1736</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38944.66499999999</v>
+        <v>38.94466499999999</v>
       </c>
       <c r="H18">
         <v>59.4857273296806</v>
@@ -1267,7 +1267,7 @@
         <v>0.2419681356609261</v>
       </c>
       <c r="K18">
-        <v>0.03257471317909359</v>
+        <v>0.1283117952124496</v>
       </c>
       <c r="L18">
         <v>51.366</v>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>4600</v>
+        <v>4.6</v>
       </c>
       <c r="E19">
         <v>547</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>93884.73799999998</v>
+        <v>93.88473799999998</v>
       </c>
       <c r="H19">
         <v>59.65067502893521</v>
@@ -1317,7 +1317,7 @@
         <v>0.1515914046072212</v>
       </c>
       <c r="K19">
-        <v>0.03257471317909359</v>
+        <v>0.1498436806238305</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>570</v>
+        <v>0.57</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         <v>14.22075297544515</v>
       </c>
       <c r="K20">
-        <v>0.03257471317909359</v>
+        <v>0.01856758651208334</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>893</v>
+        <v>0.893</v>
       </c>
       <c r="E21">
         <v>47</v>
@@ -1417,7 +1417,7 @@
         <v>9.295781009406955</v>
       </c>
       <c r="K21">
-        <v>0.03257471317909359</v>
+        <v>0.02908921886893057</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>11715</v>
+        <v>11.715</v>
       </c>
       <c r="E22">
         <v>426</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>208713.142</v>
+        <v>208.713142</v>
       </c>
       <c r="H22">
         <v>59.42166670549619</v>
@@ -1467,7 +1467,7 @@
         <v>0.2021909294244539</v>
       </c>
       <c r="K22">
-        <v>0.03257471317909359</v>
+        <v>0.3816127648930814</v>
       </c>
       <c r="L22">
         <v>27.668</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>43723</v>
+        <v>43.723</v>
       </c>
       <c r="E23">
         <v>230</v>
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>790220.274</v>
+        <v>790.220274</v>
       </c>
       <c r="H23">
         <v>59.28080554410396</v>
@@ -1517,7 +1517,7 @@
         <v>0.08028942599955043</v>
       </c>
       <c r="K23">
-        <v>0.03257471317909359</v>
+        <v>1.424264184329509</v>
       </c>
       <c r="L23">
         <v>12.914</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>217</v>
+        <v>0.217</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -1567,7 +1567,7 @@
         <v>23.92537113701242</v>
       </c>
       <c r="K24">
-        <v>0.03257471317909359</v>
+        <v>0.007068712759863309</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>9069</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="E25">
         <v>621</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>87793.05</v>
+        <v>87.79305000000001</v>
       </c>
       <c r="H25">
         <v>59.60542778409186</v>
@@ -1617,7 +1617,7 @@
         <v>0.1837498438578241</v>
       </c>
       <c r="K25">
-        <v>0.03257471317909359</v>
+        <v>0.2954200738211998</v>
       </c>
       <c r="L25">
         <v>19.798</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>24578</v>
+        <v>24.578</v>
       </c>
       <c r="E26">
         <v>87</v>
@@ -1655,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>565772.147</v>
+        <v>565.772147</v>
       </c>
       <c r="H26">
         <v>63.11151946671866</v>
@@ -1667,7 +1667,7 @@
         <v>0.2423966295353834</v>
       </c>
       <c r="K26">
-        <v>0.03274885009158887</v>
+        <v>0.8049012375510712</v>
       </c>
       <c r="L26">
         <v>158.591</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>33163</v>
+        <v>33.163</v>
       </c>
       <c r="E27">
         <v>1503</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>605475.1950000001</v>
+        <v>605.4751950000001</v>
       </c>
       <c r="H27">
         <v>62.73806392769393</v>
@@ -1717,7 +1717,7 @@
         <v>1.22065478644859</v>
       </c>
       <c r="K27">
-        <v>0.03274885009158888</v>
+        <v>1.086050115587362</v>
       </c>
       <c r="L27">
         <v>225.946</v>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>59198</v>
+        <v>59.198</v>
       </c>
       <c r="E28">
         <v>371</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>1350887.087</v>
+        <v>1350.887087</v>
       </c>
       <c r="H28">
         <v>62.47123690507589</v>
@@ -1767,7 +1767,7 @@
         <v>0.02974320608000384</v>
       </c>
       <c r="K28">
-        <v>0.03274885009158887</v>
+        <v>1.938666427721878</v>
       </c>
       <c r="L28">
         <v>421.789</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>3048</v>
+        <v>3.048</v>
       </c>
       <c r="E29">
         <v>385</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24142.502</v>
+        <v>24.142502</v>
       </c>
       <c r="H29">
         <v>62.09970003723239</v>
@@ -1817,7 +1817,7 @@
         <v>0.1095759996931654</v>
       </c>
       <c r="K29">
-        <v>0.03274885009158887</v>
+        <v>0.09981849507916288</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>2435</v>
+        <v>2.435</v>
       </c>
       <c r="E30">
         <v>93</v>
@@ -1867,7 +1867,7 @@
         <v>11.93318368042727</v>
       </c>
       <c r="K30">
-        <v>0.03274885009158887</v>
+        <v>0.0797434499730189</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>9031</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="E31">
         <v>120</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86828.726</v>
+        <v>86.82872599999999</v>
       </c>
       <c r="H31">
         <v>62.34174092871901</v>
@@ -1917,7 +1917,7 @@
         <v>0.1310903619924779</v>
       </c>
       <c r="K31">
-        <v>0.03274885009158887</v>
+        <v>0.2957548651771391</v>
       </c>
       <c r="L31">
         <v>27.968</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>8862</v>
+        <v>8.862</v>
       </c>
       <c r="E32">
         <v>97</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>210149.091</v>
+        <v>210.149091</v>
       </c>
       <c r="H32">
         <v>62.34416947114713</v>
@@ -1967,7 +1967,7 @@
         <v>0.2212560507591561</v>
       </c>
       <c r="K32">
-        <v>0.03274885009158887</v>
+        <v>0.2902203095116606</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>5320</v>
+        <v>5.32</v>
       </c>
       <c r="E33">
         <v>82</v>
@@ -2017,7 +2017,7 @@
         <v>9.828660744700207</v>
       </c>
       <c r="K33">
-        <v>0.03274885009158887</v>
+        <v>0.1742238824872528</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>11055</v>
+        <v>11.055</v>
       </c>
       <c r="E34">
         <v>662</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>156512.223</v>
+        <v>156.512223</v>
       </c>
       <c r="H34">
         <v>62.19936665731742</v>
@@ -2067,7 +2067,7 @@
         <v>0.332077970727406</v>
       </c>
       <c r="K34">
-        <v>0.03274885009158887</v>
+        <v>0.3620385377625149</v>
       </c>
       <c r="L34">
         <v>60.697</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>4380</v>
+        <v>4.38</v>
       </c>
       <c r="E35">
         <v>866</v>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>70231.80000000002</v>
+        <v>70.23180000000002</v>
       </c>
       <c r="H35">
         <v>62.30827804522984</v>
@@ -2117,7 +2117,7 @@
         <v>0.04812428799808574</v>
       </c>
       <c r="K35">
-        <v>0.03274885009158888</v>
+        <v>0.1434399634011592</v>
       </c>
       <c r="L35">
         <v>253.196</v>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>7626</v>
+        <v>7.626</v>
       </c>
       <c r="E36">
         <v>338</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>108640.872</v>
+        <v>108.640872</v>
       </c>
       <c r="H36">
         <v>62.38961106599525</v>
@@ -2167,7 +2167,7 @@
         <v>0.3492938422089224</v>
       </c>
       <c r="K36">
-        <v>0.03274885009158887</v>
+        <v>0.2497427307984567</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>9759</v>
+        <v>9.759</v>
       </c>
       <c r="E37">
         <v>59</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>96008.893</v>
+        <v>96.008893</v>
       </c>
       <c r="H37">
         <v>62.44017225620141</v>
@@ -2217,7 +2217,7 @@
         <v>0.120554396058822</v>
       </c>
       <c r="K37">
-        <v>0.03274885009158887</v>
+        <v>0.3195960280438158</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>8773</v>
+        <v>8.773</v>
       </c>
       <c r="E38">
         <v>41</v>
@@ -2267,7 +2267,7 @@
         <v>3.407604759249433</v>
       </c>
       <c r="K38">
-        <v>0.03274885009158888</v>
+        <v>0.2873056618535091</v>
       </c>
       <c r="L38">
         <v>15.583</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>7242</v>
+        <v>7.242</v>
       </c>
       <c r="E39">
         <v>405</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>89093.264</v>
+        <v>89.09326399999999</v>
       </c>
       <c r="H39">
         <v>62.62129998960578</v>
@@ -2317,7 +2317,7 @@
         <v>0.2994430281898573</v>
       </c>
       <c r="K39">
-        <v>0.03274885009158887</v>
+        <v>0.2371671723632866</v>
       </c>
       <c r="L39">
         <v>15.484</v>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>7196</v>
+        <v>7.196</v>
       </c>
       <c r="E40">
         <v>1449</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>123225.528</v>
+        <v>123.225528</v>
       </c>
       <c r="H40">
         <v>62.5681055297248</v>
@@ -2367,7 +2367,7 @@
         <v>0.1242853402984652</v>
       </c>
       <c r="K40">
-        <v>0.03274885009158887</v>
+        <v>0.2356607252590735</v>
       </c>
       <c r="L40">
         <v>105.592</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>3759</v>
+        <v>3.759</v>
       </c>
       <c r="E41">
         <v>61</v>
@@ -2417,7 +2417,7 @@
         <v>14.93634522443146</v>
       </c>
       <c r="K41">
-        <v>0.03274885009158888</v>
+        <v>0.1231029274942826</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>5992</v>
+        <v>5.992</v>
       </c>
       <c r="E42">
         <v>176</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>65072.032</v>
+        <v>65.07203199999999</v>
       </c>
       <c r="H42">
         <v>63.05322700705622</v>
@@ -2467,7 +2467,7 @@
         <v>0.130676384825917</v>
       </c>
       <c r="K42">
-        <v>0.03274885009158887</v>
+        <v>0.1962311097488005</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>2708</v>
+        <v>2.708</v>
       </c>
       <c r="E43">
         <v>382</v>
@@ -2517,7 +2517,7 @@
         <v>17.77565924482614</v>
       </c>
       <c r="K43">
-        <v>0.03274885009158887</v>
+        <v>0.08868388604802266</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>3077</v>
+        <v>3.077</v>
       </c>
       <c r="E44">
         <v>337</v>
@@ -2567,7 +2567,7 @@
         <v>27.34196455138307</v>
       </c>
       <c r="K44">
-        <v>0.03274885009158887</v>
+        <v>0.1007682117318189</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>7193</v>
+        <v>7.193</v>
       </c>
       <c r="E45">
         <v>1713</v>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>159865.455</v>
+        <v>159.865455</v>
       </c>
       <c r="H45">
         <v>62.67463330995218</v>
@@ -2617,7 +2617,7 @@
         <v>0.9417159190798167</v>
       </c>
       <c r="K45">
-        <v>0.03274885009158888</v>
+        <v>0.2355624787087987</v>
       </c>
       <c r="L45">
         <v>29.985</v>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>5950</v>
+        <v>5.95</v>
       </c>
       <c r="E46">
         <v>1366</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>110736.616</v>
+        <v>110.736616</v>
       </c>
       <c r="H46">
         <v>62.97533607882873</v>
@@ -2667,7 +2667,7 @@
         <v>0.1746207155434114</v>
       </c>
       <c r="K46">
-        <v>0.03274885009158887</v>
+        <v>0.1948556580449538</v>
       </c>
       <c r="L46">
         <v>20.085</v>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>2168</v>
+        <v>2.168</v>
       </c>
       <c r="E47">
         <v>272</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>29866.92</v>
+        <v>29.86692</v>
       </c>
       <c r="H47">
         <v>63.45965281744368</v>
@@ -2717,7 +2717,7 @@
         <v>0.1342763104211891</v>
       </c>
       <c r="K47">
-        <v>0.03274885009158887</v>
+        <v>0.07099950699856468</v>
       </c>
       <c r="L47">
         <v>20.798</v>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>3394</v>
+        <v>3.394</v>
       </c>
       <c r="E48">
         <v>641</v>
@@ -2767,7 +2767,7 @@
         <v>28.02924080717625</v>
       </c>
       <c r="K48">
-        <v>0.03274885009158887</v>
+        <v>0.1111495972108526</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>11131</v>
+        <v>11.131</v>
       </c>
       <c r="E49">
         <v>877</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>147069.652</v>
+        <v>147.069652</v>
       </c>
       <c r="H49">
         <v>62.14677780778755</v>
@@ -2817,7 +2817,7 @@
         <v>0.3636450666718419</v>
       </c>
       <c r="K49">
-        <v>0.03274885009158887</v>
+        <v>0.3645274503694757</v>
       </c>
       <c r="L49">
         <v>13.654</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>2506</v>
+        <v>2.506</v>
       </c>
       <c r="E50">
         <v>1191</v>
@@ -2867,7 +2867,7 @@
         <v>16.36717319101789</v>
       </c>
       <c r="K50">
-        <v>0.03274885009158887</v>
+        <v>0.0820686183295217</v>
       </c>
       <c r="L50">
         <v>102.285</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>13460</v>
+        <v>13.46</v>
       </c>
       <c r="E51">
         <v>522</v>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>127270.557</v>
+        <v>127.270557</v>
       </c>
       <c r="H51">
         <v>62.85359968357291</v>
@@ -2917,7 +2917,7 @@
         <v>0.3665115095323905</v>
       </c>
       <c r="K51">
-        <v>0.03274885009158887</v>
+        <v>0.4407995222327862</v>
       </c>
       <c r="L51">
         <v>53.918</v>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>9409</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="E52">
         <v>261</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>60856.24</v>
+        <v>60.85624</v>
       </c>
       <c r="H52">
         <v>62.59897781628695</v>
@@ -2967,7 +2967,7 @@
         <v>0.1626791499749644</v>
       </c>
       <c r="K52">
-        <v>0.03274885009158888</v>
+        <v>0.3081339305117597</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>53725</v>
+        <v>53.725</v>
       </c>
       <c r="E53">
         <v>1395</v>
@@ -3005,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>1259861.827</v>
+        <v>1259.861827</v>
       </c>
       <c r="H53">
         <v>67.2832388753708</v>
@@ -3017,7 +3017,7 @@
         <v>0.1682639551244116</v>
       </c>
       <c r="K53">
-        <v>0.09594304997906249</v>
+        <v>5.154540360125131</v>
       </c>
       <c r="L53">
         <v>581.309</v>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>21591</v>
+        <v>21.591</v>
       </c>
       <c r="E54">
         <v>3432</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>406413.914</v>
+        <v>406.413914</v>
       </c>
       <c r="H54">
         <v>68.43823514973224</v>
@@ -3067,7 +3067,7 @@
         <v>0.5785329998160146</v>
       </c>
       <c r="K54">
-        <v>0.09594304997906247</v>
+        <v>2.071506392097938</v>
       </c>
       <c r="L54">
         <v>210.944</v>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>1374</v>
+        <v>1.374</v>
       </c>
       <c r="E55">
         <v>1266</v>
@@ -3117,7 +3117,7 @@
         <v>43.57907021752146</v>
       </c>
       <c r="K55">
-        <v>0.09594304997906247</v>
+        <v>0.1318257506712319</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>1979</v>
+        <v>1.979</v>
       </c>
       <c r="E56">
         <v>195</v>
@@ -3167,7 +3167,7 @@
         <v>17.80626847231311</v>
       </c>
       <c r="K56">
-        <v>0.09594304997906247</v>
+        <v>0.1898712959085647</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>7838</v>
+        <v>7.838</v>
       </c>
       <c r="E57">
         <v>1046</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>172654.07</v>
+        <v>172.65407</v>
       </c>
       <c r="H57">
         <v>65.46785278916217</v>
@@ -3217,7 +3217,7 @@
         <v>0.5625210236686974</v>
       </c>
       <c r="K57">
-        <v>0.09594304997906247</v>
+        <v>0.7520016257358918</v>
       </c>
       <c r="L57">
         <v>30.622</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>1207</v>
+        <v>1.207</v>
       </c>
       <c r="E58">
         <v>165</v>
@@ -3267,7 +3267,7 @@
         <v>25.1845583871031</v>
       </c>
       <c r="K58">
-        <v>0.09594304997906247</v>
+        <v>0.1158032613247284</v>
       </c>
       <c r="L58">
         <v>8.237</v>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>470</v>
+        <v>0.47</v>
       </c>
       <c r="E59">
         <v>539</v>
@@ -3317,7 +3317,7 @@
         <v>27.43085635965907</v>
       </c>
       <c r="K59">
-        <v>0.09594304997906247</v>
+        <v>0.04509323349015937</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>1888</v>
+        <v>1.888</v>
       </c>
       <c r="E60">
         <v>64</v>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>32626.095</v>
+        <v>32.626095</v>
       </c>
       <c r="H60">
         <v>65.98426666859213</v>
@@ -3367,7 +3367,7 @@
         <v>0.09625078828543193</v>
       </c>
       <c r="K60">
-        <v>0.09594304997906247</v>
+        <v>0.18114047836047</v>
       </c>
       <c r="L60">
         <v>4.405</v>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>7465</v>
+        <v>7.465</v>
       </c>
       <c r="E61">
         <v>188</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>193895.114</v>
+        <v>193.895114</v>
       </c>
       <c r="H61">
         <v>66.01936668294518</v>
@@ -3417,7 +3417,7 @@
         <v>1.46741836584172</v>
       </c>
       <c r="K61">
-        <v>0.09594304997906247</v>
+        <v>0.7162148680937014</v>
       </c>
       <c r="L61">
         <v>26.113</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>2354</v>
+        <v>2.354</v>
       </c>
       <c r="E62">
         <v>465</v>
@@ -3467,7 +3467,7 @@
         <v>14.44369559539696</v>
       </c>
       <c r="K62">
-        <v>0.09594304997906247</v>
+        <v>0.2258499396507131</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>13475</v>
+        <v>13.475</v>
       </c>
       <c r="E63">
         <v>1929</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>265853.637</v>
+        <v>265.853637</v>
       </c>
       <c r="H63">
         <v>65.84108888673519</v>
@@ -3517,7 +3517,7 @@
         <v>0.4883954462425823</v>
       </c>
       <c r="K63">
-        <v>0.09594304997906247</v>
+        <v>1.292832598467867</v>
       </c>
       <c r="L63">
         <v>31.16</v>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>1430</v>
+        <v>1.43</v>
       </c>
       <c r="E64">
         <v>2004</v>
@@ -3567,7 +3567,7 @@
         <v>34.70680662110051</v>
       </c>
       <c r="K64">
-        <v>0.09594304997906247</v>
+        <v>0.1371985614700593</v>
       </c>
       <c r="L64">
         <v>10.406</v>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>1274</v>
+        <v>1.274</v>
       </c>
       <c r="E65">
         <v>2684</v>
@@ -3617,7 +3617,7 @@
         <v>45.46239825543459</v>
       </c>
       <c r="K65">
-        <v>0.09594304997906247</v>
+        <v>0.1222314456733256</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>1447</v>
+        <v>1.447</v>
       </c>
       <c r="E66">
         <v>193</v>
@@ -3667,7 +3667,7 @@
         <v>11.60459569728157</v>
       </c>
       <c r="K66">
-        <v>0.09594304997906247</v>
+        <v>0.1388295933197034</v>
       </c>
       <c r="L66">
         <v>3.015</v>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="D67">
-        <v>1770</v>
+        <v>1.77</v>
       </c>
       <c r="E67">
         <v>183</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>26974.077</v>
+        <v>26.974077</v>
       </c>
       <c r="H67">
         <v>66.19795555118156</v>
@@ -3717,7 +3717,7 @@
         <v>0.2075670061211448</v>
       </c>
       <c r="K67">
-        <v>0.09594304997906249</v>
+        <v>0.1698191984629406</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D68">
-        <v>4485</v>
+        <v>4.485</v>
       </c>
       <c r="E68">
         <v>1590</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>52751.047</v>
+        <v>52.751047</v>
       </c>
       <c r="H68">
         <v>66.07710829865341</v>
@@ -3767,7 +3767,7 @@
         <v>0.6287236067788495</v>
       </c>
       <c r="K68">
-        <v>0.09594304997906247</v>
+        <v>0.4303045791560953</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>25927</v>
+        <v>25.927</v>
       </c>
       <c r="E69">
         <v>4460</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>520562.434</v>
+        <v>520.5624340000001</v>
       </c>
       <c r="H69">
         <v>66.31121386439534</v>
@@ -3817,7 +3817,7 @@
         <v>0.6252779841186886</v>
       </c>
       <c r="K69">
-        <v>0.09594304997906249</v>
+        <v>2.487515456807153</v>
       </c>
       <c r="L69">
         <v>166.181</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>1948</v>
+        <v>1.948</v>
       </c>
       <c r="E70">
         <v>265</v>
@@ -3867,7 +3867,7 @@
         <v>23.1907123172317</v>
       </c>
       <c r="K70">
-        <v>0.09594304997906249</v>
+        <v>0.1868970613592137</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="D71">
-        <v>463</v>
+        <v>0.463</v>
       </c>
       <c r="E71">
         <v>17</v>
@@ -3917,7 +3917,7 @@
         <v>53.31288898098402</v>
       </c>
       <c r="K71">
-        <v>0.09594304997906249</v>
+        <v>0.04442163214030593</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="D72">
-        <v>1160</v>
+        <v>1.16</v>
       </c>
       <c r="E72">
         <v>711</v>
@@ -3967,7 +3967,7 @@
         <v>25.70356459395773</v>
       </c>
       <c r="K72">
-        <v>0.09594304997906247</v>
+        <v>0.1112939379757125</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="D73">
-        <v>6104</v>
+        <v>6.104</v>
       </c>
       <c r="E73">
         <v>874</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>108066.395</v>
+        <v>108.066395</v>
       </c>
       <c r="H73">
         <v>66.87203607177626</v>
@@ -4017,7 +4017,7 @@
         <v>0.1026500767937741</v>
       </c>
       <c r="K73">
-        <v>0.09594304997906247</v>
+        <v>0.5856363770721974</v>
       </c>
       <c r="L73">
         <v>33.851</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>2003</v>
+        <v>2.003</v>
       </c>
       <c r="E74">
         <v>665</v>
@@ -4067,7 +4067,7 @@
         <v>22.75940140490175</v>
       </c>
       <c r="K74">
-        <v>0.09594304997906247</v>
+        <v>0.1921739291080621</v>
       </c>
       <c r="L74">
         <v>10.679</v>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D75">
-        <v>1059</v>
+        <v>1.059</v>
       </c>
       <c r="E75">
         <v>1222</v>
@@ -4117,7 +4117,7 @@
         <v>30.47931638313513</v>
       </c>
       <c r="K75">
-        <v>0.09594304997906247</v>
+        <v>0.1016036899278272</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>4822</v>
+        <v>4.822</v>
       </c>
       <c r="E76">
         <v>2216</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>85882.62499999999</v>
+        <v>85.88262499999999</v>
       </c>
       <c r="H76">
         <v>67.10143884142828</v>
@@ -4167,7 +4167,7 @@
         <v>0.1367666026030055</v>
       </c>
       <c r="K76">
-        <v>0.09594304997906249</v>
+        <v>0.4626373869990393</v>
       </c>
       <c r="L76">
         <v>31.832</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="D77">
-        <v>9805</v>
+        <v>9.805</v>
       </c>
       <c r="E77">
         <v>1197</v>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>239953.638</v>
+        <v>239.953638</v>
       </c>
       <c r="H77">
         <v>67.2596151299211</v>
@@ -4217,7 +4217,7 @@
         <v>0.1612820730777802</v>
       </c>
       <c r="K77">
-        <v>0.09594304997906249</v>
+        <v>0.9407216050447077</v>
       </c>
       <c r="L77">
         <v>34.39</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="D78">
-        <v>1851</v>
+        <v>1.851</v>
       </c>
       <c r="E78">
         <v>1637</v>
@@ -4267,7 +4267,7 @@
         <v>13.13534644678668</v>
       </c>
       <c r="K78">
-        <v>0.09594304997906247</v>
+        <v>0.1775905855112447</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="D79">
-        <v>2662</v>
+        <v>2.662</v>
       </c>
       <c r="E79">
         <v>1009</v>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>59628.591</v>
+        <v>59.628591</v>
       </c>
       <c r="H79">
         <v>67.77625004266166</v>
@@ -4317,7 +4317,7 @@
         <v>0.07618174104441672</v>
       </c>
       <c r="K79">
-        <v>0.09594304997906247</v>
+        <v>0.2554003990442643</v>
       </c>
       <c r="L79">
         <v>17.742</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="D80">
-        <v>2067</v>
+        <v>2.067</v>
       </c>
       <c r="E80">
         <v>527</v>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>43683.264</v>
+        <v>43.683264</v>
       </c>
       <c r="H80">
         <v>68.40997501375686</v>
@@ -4367,7 +4367,7 @@
         <v>0.5496957960731215</v>
       </c>
       <c r="K80">
-        <v>0.09594304997906247</v>
+        <v>0.1983142843067222</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>1362</v>
+        <v>1.362</v>
       </c>
       <c r="E81">
         <v>253</v>
@@ -4417,7 +4417,7 @@
         <v>19.01192570556992</v>
       </c>
       <c r="K81">
-        <v>0.09594304997906247</v>
+        <v>0.1306744340714831</v>
       </c>
       <c r="L81">
         <v>5.117</v>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>458</v>
+        <v>0.458</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -4467,7 +4467,7 @@
         <v>94.45435580604533</v>
       </c>
       <c r="K82">
-        <v>0.09594304997906249</v>
+        <v>0.04394191689041062</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>677</v>
+        <v>0.677</v>
       </c>
       <c r="E83">
         <v>19</v>
@@ -4517,7 +4517,7 @@
         <v>66.43412787026726</v>
       </c>
       <c r="K83">
-        <v>0.09594304997906247</v>
+        <v>0.06495344483582531</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>1266</v>
+        <v>1.266</v>
       </c>
       <c r="E84">
         <v>179</v>
@@ -4567,7 +4567,7 @@
         <v>17.11676206223123</v>
       </c>
       <c r="K84">
-        <v>0.09594304997906247</v>
+        <v>0.1214639012734931</v>
       </c>
       <c r="L84">
         <v>26.138</v>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>11582</v>
+        <v>11.582</v>
       </c>
       <c r="E85">
         <v>424</v>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>258982.293</v>
+        <v>258.982293</v>
       </c>
       <c r="H85">
         <v>68.1483028052909</v>
@@ -4617,7 +4617,7 @@
         <v>0.265684027713886</v>
       </c>
       <c r="K85">
-        <v>0.09594304997906249</v>
+        <v>1.111212404857502</v>
       </c>
       <c r="L85">
         <v>92.343</v>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>9871</v>
+        <v>9.871</v>
       </c>
       <c r="E86">
         <v>479</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>255329.996</v>
+        <v>255.329996</v>
       </c>
       <c r="H86">
         <v>68.23219443842669</v>
@@ -4667,7 +4667,7 @@
         <v>0.1823140557610419</v>
       </c>
       <c r="K86">
-        <v>0.09594304997906247</v>
+        <v>0.9470538463433259</v>
       </c>
       <c r="L86">
         <v>441.299</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>8400</v>
+        <v>8.4</v>
       </c>
       <c r="E87">
         <v>567</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>135983.381</v>
+        <v>135.983381</v>
       </c>
       <c r="H87">
         <v>68.56327773723879</v>
@@ -4717,7 +4717,7 @@
         <v>0.4612114247912597</v>
       </c>
       <c r="K87">
-        <v>0.09594304997906249</v>
+        <v>0.8059216198241249</v>
       </c>
       <c r="L87">
         <v>55.407</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D88">
-        <v>2617</v>
+        <v>2.617</v>
       </c>
       <c r="E88">
         <v>247</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>34876.03999999999</v>
+        <v>34.87604</v>
       </c>
       <c r="H88">
         <v>68.68823055087516</v>
@@ -4767,7 +4767,7 @@
         <v>7.619624090622855</v>
       </c>
       <c r="K88">
-        <v>0.09594304997906247</v>
+        <v>0.2510829617952065</v>
       </c>
       <c r="L88">
         <v>24.161</v>
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>4628</v>
+        <v>4.628</v>
       </c>
       <c r="E89">
         <v>320</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>82613.52300000003</v>
+        <v>82.61352300000003</v>
       </c>
       <c r="H89">
         <v>68.91462221007519</v>
@@ -4817,7 +4817,7 @@
         <v>0.5670517629628307</v>
       </c>
       <c r="K89">
-        <v>0.09594304997906247</v>
+        <v>0.4440244353031012</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="D90">
-        <v>10781</v>
+        <v>10.781</v>
       </c>
       <c r="E90">
         <v>722</v>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>316365.033</v>
+        <v>316.365033</v>
       </c>
       <c r="H90">
         <v>68.69617502170892</v>
@@ -4867,7 +4867,7 @@
         <v>0.2685196559593244</v>
       </c>
       <c r="K90">
-        <v>0.09594304997906247</v>
+        <v>1.034362021824273</v>
       </c>
       <c r="L90">
         <v>75.509</v>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>4542</v>
+        <v>4.542</v>
       </c>
       <c r="E91">
         <v>656</v>
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>86095.571</v>
+        <v>86.09557099999999</v>
       </c>
       <c r="H91">
         <v>69.31701947300476</v>
@@ -4917,7 +4917,7 @@
         <v>0.3800734739833699</v>
       </c>
       <c r="K91">
-        <v>0.09594304997906249</v>
+        <v>0.4357733330049018</v>
       </c>
       <c r="L91">
         <v>94.508</v>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>969</v>
+        <v>0.969</v>
       </c>
       <c r="E92">
         <v>119</v>
@@ -4967,7 +4967,7 @@
         <v>32.38371154057499</v>
       </c>
       <c r="K92">
-        <v>0.09594304997906247</v>
+        <v>0.09296881542971154</v>
       </c>
       <c r="L92">
         <v>138.321</v>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>2786</v>
+        <v>2.786</v>
       </c>
       <c r="E93">
         <v>2020</v>
@@ -5017,7 +5017,7 @@
         <v>39.99508991727223</v>
       </c>
       <c r="K93">
-        <v>0.09594304997906247</v>
+        <v>0.2672973372416681</v>
       </c>
       <c r="L93">
         <v>34.894</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="D94">
-        <v>32038</v>
+        <v>32.038</v>
       </c>
       <c r="E94">
         <v>642</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>267221.488</v>
+        <v>267.221488</v>
       </c>
       <c r="H94">
         <v>59.12257272796247</v>
@@ -5067,7 +5067,7 @@
         <v>0.2442896293388739</v>
       </c>
       <c r="K94">
-        <v>0.6467651801645639</v>
+        <v>20.72106284211229</v>
       </c>
       <c r="L94">
         <v>86.004</v>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>52646</v>
+        <v>52.646</v>
       </c>
       <c r="E95">
         <v>138</v>
@@ -5105,7 +5105,7 @@
         <v>2</v>
       </c>
       <c r="G95">
-        <v>1050584.631</v>
+        <v>1050.584631</v>
       </c>
       <c r="H95">
         <v>59.43425981228817</v>
@@ -5117,7 +5117,7 @@
         <v>0.4179704058803027</v>
       </c>
       <c r="K95">
-        <v>0.6467651801645637</v>
+        <v>34.04959967494363</v>
       </c>
       <c r="L95">
         <v>57.442</v>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>60139</v>
+        <v>60.139</v>
       </c>
       <c r="E96">
         <v>406</v>
@@ -5155,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="G96">
-        <v>616080.019</v>
+        <v>616.080019</v>
       </c>
       <c r="H96">
         <v>59.28147780620899</v>
@@ -5167,7 +5167,7 @@
         <v>0.363065088781134</v>
       </c>
       <c r="K96">
-        <v>0.6467651801645637</v>
+        <v>38.8958111699167</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>85862</v>
+        <v>85.86199999999999</v>
       </c>
       <c r="E97">
         <v>293</v>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="G97">
-        <v>933298.8780000001</v>
+        <v>933.2988780000002</v>
       </c>
       <c r="H97">
         <v>59.21759443534219</v>
@@ -5217,7 +5217,7 @@
         <v>0.7875826270011952</v>
       </c>
       <c r="K97">
-        <v>0.6467651801645637</v>
+        <v>55.53255189928977</v>
       </c>
       <c r="L97">
         <v>47.847</v>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="D98">
-        <v>4777</v>
+        <v>4.777</v>
       </c>
       <c r="E98">
         <v>90</v>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>116998.325</v>
+        <v>116.998325</v>
       </c>
       <c r="H98">
         <v>59.02808330711903</v>
@@ -5267,7 +5267,7 @@
         <v>0.1880250164650877</v>
       </c>
       <c r="K98">
-        <v>0.6467651801645639</v>
+        <v>3.089597265646121</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="D99">
-        <v>7850</v>
+        <v>7.85</v>
       </c>
       <c r="E99">
         <v>119</v>
@@ -5317,7 +5317,7 @@
         <v>12.8910270925836</v>
       </c>
       <c r="K99">
-        <v>0.6467651801645637</v>
+        <v>5.077106664291826</v>
       </c>
       <c r="L99">
         <v>55.235</v>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="D100">
-        <v>6162</v>
+        <v>6.162</v>
       </c>
       <c r="E100">
         <v>257</v>
@@ -5367,7 +5367,7 @@
         <v>10.7889312979334</v>
       </c>
       <c r="K100">
-        <v>0.6467651801645637</v>
+        <v>3.985367040174042</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>3956</v>
+        <v>3.956</v>
       </c>
       <c r="E101">
         <v>101</v>
@@ -5417,7 +5417,7 @@
         <v>11.51837921725955</v>
       </c>
       <c r="K101">
-        <v>0.6467651801645639</v>
+        <v>2.558603052731014</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="D102">
-        <v>47449</v>
+        <v>47.449</v>
       </c>
       <c r="E102">
         <v>792</v>
@@ -5455,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>526359.7930000001</v>
+        <v>526.3597930000001</v>
       </c>
       <c r="H102">
         <v>59.58466067768378</v>
@@ -5467,7 +5467,7 @@
         <v>0.5653232738183865</v>
       </c>
       <c r="K102">
-        <v>0.6467651801645639</v>
+        <v>30.68836103362839</v>
       </c>
       <c r="L102">
         <v>6.053</v>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="D103">
-        <v>8527</v>
+        <v>8.526999999999999</v>
       </c>
       <c r="E103">
         <v>435</v>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>75154.383</v>
+        <v>75.154383</v>
       </c>
       <c r="H103">
         <v>59.42822218278434</v>
@@ -5517,7 +5517,7 @@
         <v>0.2023578968498255</v>
       </c>
       <c r="K103">
-        <v>0.6467651801645637</v>
+        <v>5.514966691263234</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>3655</v>
+        <v>3.655</v>
       </c>
       <c r="E104">
         <v>413</v>
@@ -5567,7 +5567,7 @@
         <v>18.95264226153718</v>
       </c>
       <c r="K104">
-        <v>0.6467651801645637</v>
+        <v>2.36392673350148</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="D105">
-        <v>1346</v>
+        <v>1.346</v>
       </c>
       <c r="E105">
         <v>319</v>
@@ -5617,7 +5617,7 @@
         <v>21.04270846108081</v>
       </c>
       <c r="K105">
-        <v>0.6467651801645637</v>
+        <v>0.8705459325015029</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="D106">
-        <v>132358</v>
+        <v>132.358</v>
       </c>
       <c r="E106">
         <v>192</v>
@@ -5655,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="G106">
-        <v>2609003.756</v>
+        <v>2609.003756</v>
       </c>
       <c r="H106">
         <v>59.89010550901183</v>
@@ -5667,7 +5667,7 @@
         <v>0.3685460337514689</v>
       </c>
       <c r="K106">
-        <v>0.1883134983649952</v>
+        <v>24.92479801659404</v>
       </c>
       <c r="L106">
         <v>345.089</v>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="D107">
-        <v>100492</v>
+        <v>100.492</v>
       </c>
       <c r="E107">
         <v>377</v>
@@ -5705,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="G107">
-        <v>1905062.852</v>
+        <v>1905.062852</v>
       </c>
       <c r="H107">
         <v>59.83733330628932</v>
@@ -5717,7 +5717,7 @@
         <v>0.1454932371628658</v>
       </c>
       <c r="K107">
-        <v>0.1883134983649952</v>
+        <v>18.9240000776951</v>
       </c>
       <c r="L107">
         <v>198.74</v>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="D108">
-        <v>95762</v>
+        <v>95.762</v>
       </c>
       <c r="E108">
         <v>457</v>
@@ -5755,7 +5755,7 @@
         <v>5</v>
       </c>
       <c r="G108">
-        <v>1482015.952</v>
+        <v>1482.015952</v>
       </c>
       <c r="H108">
         <v>59.95451818397581</v>
@@ -5767,7 +5767,7 @@
         <v>0.6020142784213397</v>
       </c>
       <c r="K108">
-        <v>0.1883134983649952</v>
+        <v>18.03327723042867</v>
       </c>
       <c r="L108">
         <v>269.12</v>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>64668</v>
+        <v>64.66800000000001</v>
       </c>
       <c r="E109">
         <v>203</v>
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <v>1288323.653</v>
+        <v>1288.323653</v>
       </c>
       <c r="H109">
         <v>59.72054063207734</v>
@@ -5817,7 +5817,7 @@
         <v>0.4836665028667917</v>
       </c>
       <c r="K109">
-        <v>0.1883134983649952</v>
+        <v>12.17785731226751</v>
       </c>
       <c r="L109">
         <v>105.1</v>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>45066</v>
+        <v>45.066</v>
       </c>
       <c r="E110">
         <v>252</v>
@@ -5855,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="G110">
-        <v>683154.8539999999</v>
+        <v>683.1548539999999</v>
       </c>
       <c r="H110">
         <v>60.14402779870708</v>
@@ -5867,7 +5867,7 @@
         <v>0.2347097141383586</v>
       </c>
       <c r="K110">
-        <v>0.1883134983649952</v>
+        <v>8.486536117316874</v>
       </c>
       <c r="L110">
         <v>1188.458</v>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="D111">
-        <v>20698</v>
+        <v>20.698</v>
       </c>
       <c r="E111">
         <v>61</v>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>348191.428</v>
+        <v>348.191428</v>
       </c>
       <c r="H111">
         <v>59.84220000251475</v>
@@ -5917,7 +5917,7 @@
         <v>1.656366596815813</v>
       </c>
       <c r="K111">
-        <v>0.1883134983649952</v>
+        <v>3.897712789158671</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="D112">
-        <v>16337</v>
+        <v>16.337</v>
       </c>
       <c r="E112">
         <v>86</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>291703.5640000001</v>
+        <v>291.7035640000001</v>
       </c>
       <c r="H112">
         <v>59.66664444266483</v>
@@ -5967,7 +5967,7 @@
         <v>0.518640499009096</v>
       </c>
       <c r="K112">
-        <v>0.1883134983649952</v>
+        <v>3.076477622788926</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="D113">
-        <v>19855</v>
+        <v>19.855</v>
       </c>
       <c r="E113">
         <v>134</v>
@@ -6005,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="G113">
-        <v>441604.851</v>
+        <v>441.604851</v>
       </c>
       <c r="H113">
         <v>59.60227500420732</v>
@@ -6017,7 +6017,7 @@
         <v>0.3350666668740893</v>
       </c>
       <c r="K113">
-        <v>0.1883134983649952</v>
+        <v>3.73896451003698</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="D114">
-        <v>22344</v>
+        <v>22.344</v>
       </c>
       <c r="E114">
         <v>103</v>
@@ -6055,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>669901.0179999999</v>
+        <v>669.9010179999999</v>
       </c>
       <c r="H114">
         <v>59.66365559207166</v>
@@ -6067,7 +6067,7 @@
         <v>0.1145807772234762</v>
       </c>
       <c r="K114">
-        <v>0.1883134983649953</v>
+        <v>4.207676807467453</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>11549</v>
+        <v>11.549</v>
       </c>
       <c r="E115">
         <v>233</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>108066.867</v>
+        <v>108.066867</v>
       </c>
       <c r="H115">
         <v>59.76451387840864</v>
@@ -6117,7 +6117,7 @@
         <v>6.965926716531094</v>
       </c>
       <c r="K115">
-        <v>0.1883134983649953</v>
+        <v>2.17483259261733</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="D116">
-        <v>50013</v>
+        <v>50.013</v>
       </c>
       <c r="E116">
         <v>71</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>362517.944</v>
+        <v>362.517944</v>
       </c>
       <c r="H116">
         <v>59.93208333096646</v>
@@ -6167,7 +6167,7 @@
         <v>0.5203400862734409</v>
       </c>
       <c r="K116">
-        <v>0.1883134983649952</v>
+        <v>9.418122993728504</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="D117">
-        <v>20509</v>
+        <v>20.509</v>
       </c>
       <c r="E117">
         <v>72</v>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>85821.90700000001</v>
+        <v>85.82190700000001</v>
       </c>
       <c r="H117">
         <v>59.9262555305887</v>
@@ -6217,7 +6217,7 @@
         <v>0.2962023323195418</v>
       </c>
       <c r="K117">
-        <v>0.1883134983649952</v>
+        <v>3.862121537967687</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="D118">
-        <v>18314</v>
+        <v>18.314</v>
       </c>
       <c r="E118">
         <v>1145</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>152766.142</v>
+        <v>152.766142</v>
       </c>
       <c r="H118">
         <v>59.88319234648573</v>
@@ -6267,7 +6267,7 @@
         <v>0.1007296121429209</v>
       </c>
       <c r="K118">
-        <v>0.1883134983649952</v>
+        <v>3.448773409056523</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="D119">
-        <v>24897</v>
+        <v>24.897</v>
       </c>
       <c r="E119">
         <v>641</v>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>197477.6639999999</v>
+        <v>197.4776639999999</v>
       </c>
       <c r="H119">
         <v>60.12251389913505</v>
@@ -6317,7 +6317,7 @@
         <v>0.1230026077783328</v>
       </c>
       <c r="K119">
-        <v>0.1883134983649952</v>
+        <v>4.688441168793286</v>
       </c>
       <c r="L119">
         <v>14.08</v>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="D120">
-        <v>7453</v>
+        <v>7.453</v>
       </c>
       <c r="E120">
         <v>83</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>93517.24500000001</v>
+        <v>93.51724500000002</v>
       </c>
       <c r="H120">
         <v>60.07158885876601</v>
@@ -6367,7 +6367,7 @@
         <v>0.09290153439328408</v>
       </c>
       <c r="K120">
-        <v>0.1883134983649952</v>
+        <v>1.403500503314309</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="D121">
-        <v>26023</v>
+        <v>26.023</v>
       </c>
       <c r="E121">
         <v>186</v>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>273933.441</v>
+        <v>273.933441</v>
       </c>
       <c r="H121">
         <v>60.04278056614304</v>
@@ -6417,7 +6417,7 @@
         <v>0.5234520852095456</v>
       </c>
       <c r="K121">
-        <v>0.1883134983649952</v>
+        <v>4.90048216795227</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="D122">
-        <v>9420</v>
+        <v>9.42</v>
       </c>
       <c r="E122">
         <v>292</v>
@@ -6467,7 +6467,7 @@
         <v>7.323172430657713</v>
       </c>
       <c r="K122">
-        <v>0.1883134983649952</v>
+        <v>1.773913154598255</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="D123">
-        <v>7043</v>
+        <v>7.043</v>
       </c>
       <c r="E123">
         <v>226</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>129992.713</v>
+        <v>129.992713</v>
       </c>
       <c r="H123">
         <v>60.24059996656771</v>
@@ -6517,7 +6517,7 @@
         <v>0.08552049909513343</v>
       </c>
       <c r="K123">
-        <v>0.263066206620402</v>
+        <v>1.852775293227491</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="D124">
-        <v>16505</v>
+        <v>16.505</v>
       </c>
       <c r="E124">
         <v>341</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>111395.109</v>
+        <v>111.395109</v>
       </c>
       <c r="H124">
         <v>60.21706668344607</v>
@@ -6567,7 +6567,7 @@
         <v>0.3975569642773306</v>
       </c>
       <c r="K124">
-        <v>0.1883134983649953</v>
+        <v>3.108114290514246</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="D125">
-        <v>28352</v>
+        <v>28.352</v>
       </c>
       <c r="E125">
         <v>456</v>
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>386634.241</v>
+        <v>386.634241</v>
       </c>
       <c r="H125">
         <v>60.3288953811018</v>
@@ -6617,7 +6617,7 @@
         <v>0.1562129967133798</v>
       </c>
       <c r="K125">
-        <v>0.1883134983649952</v>
+        <v>5.339064305644345</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="D126">
-        <v>3022</v>
+        <v>3.022</v>
       </c>
       <c r="E126">
         <v>285</v>
@@ -6667,7 +6667,7 @@
         <v>15.79364226743874</v>
       </c>
       <c r="K126">
-        <v>0.1883134983649952</v>
+        <v>0.5690833920590155</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>105452</v>
+        <v>105.452</v>
       </c>
       <c r="E127">
         <v>318</v>
@@ -6705,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="G127">
-        <v>1787788.179</v>
+        <v>1787.788179</v>
       </c>
       <c r="H127">
         <v>59.74472017610043</v>
@@ -6717,7 +6717,7 @@
         <v>0.2177910021106876</v>
       </c>
       <c r="K127">
-        <v>0.1154192841974872</v>
+        <v>12.17119435719342</v>
       </c>
       <c r="L127">
         <v>39.925</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="D128">
-        <v>29011</v>
+        <v>29.011</v>
       </c>
       <c r="E128">
         <v>793</v>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>455628.448</v>
+        <v>455.628448</v>
       </c>
       <c r="H128">
         <v>59.66501316472751</v>
@@ -6767,7 +6767,7 @@
         <v>0.1329981599881159</v>
       </c>
       <c r="K128">
-        <v>0.1154192841974872</v>
+        <v>3.3484288538533</v>
       </c>
       <c r="L128">
         <v>74.917</v>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="D129">
-        <v>31793</v>
+        <v>31.793</v>
       </c>
       <c r="E129">
         <v>1555</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>404847.17</v>
+        <v>404.84717</v>
       </c>
       <c r="H129">
         <v>60.16016001562347</v>
@@ -6817,7 +6817,7 @@
         <v>0.537471755882627</v>
       </c>
       <c r="K129">
-        <v>0.1154192841974872</v>
+        <v>3.66952530249071</v>
       </c>
       <c r="L129">
         <v>68.59099999999999</v>
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="D130">
-        <v>7065</v>
+        <v>7.065</v>
       </c>
       <c r="E130">
         <v>193</v>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>142196.04</v>
+        <v>142.19604</v>
       </c>
       <c r="H130">
         <v>60.08017299817445</v>
@@ -6867,7 +6867,7 @@
         <v>0.3436803876486919</v>
       </c>
       <c r="K130">
-        <v>0.1154192841974872</v>
+        <v>0.815437242855247</v>
       </c>
       <c r="L130">
         <v>42.801</v>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="D131">
-        <v>28642</v>
+        <v>28.642</v>
       </c>
       <c r="E131">
         <v>302</v>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>428812.446</v>
+        <v>428.812446</v>
       </c>
       <c r="H131">
         <v>59.78662497321124</v>
@@ -6917,7 +6917,7 @@
         <v>4.292023561147745</v>
       </c>
       <c r="K131">
-        <v>0.1154192841974872</v>
+        <v>3.305839137984428</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="D132">
-        <v>20861</v>
+        <v>20.861</v>
       </c>
       <c r="E132">
         <v>457</v>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>276749.9399999999</v>
+        <v>276.7499399999999</v>
       </c>
       <c r="H132">
         <v>59.77111108406577</v>
@@ -6967,7 +6967,7 @@
         <v>0.230745953946608</v>
       </c>
       <c r="K132">
-        <v>0.1154192841974872</v>
+        <v>2.40776168764378</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="D133">
-        <v>14664</v>
+        <v>14.664</v>
       </c>
       <c r="E133">
         <v>517</v>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>185461.614</v>
+        <v>185.461614</v>
       </c>
       <c r="H133">
         <v>59.97345552202059</v>
@@ -7017,7 +7017,7 @@
         <v>1.212708855344643</v>
       </c>
       <c r="K133">
-        <v>0.1154192841974872</v>
+        <v>1.692508383471952</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="D134">
-        <v>2235</v>
+        <v>2.235</v>
       </c>
       <c r="E134">
         <v>374</v>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>61254.852</v>
+        <v>61.254852</v>
       </c>
       <c r="H134">
         <v>60.17943334749047</v>
@@ -7067,7 +7067,7 @@
         <v>0.2564066812421673</v>
       </c>
       <c r="K134">
-        <v>0.1154192841974872</v>
+        <v>0.2579621001813838</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="D135">
-        <v>1117</v>
+        <v>1.117</v>
       </c>
       <c r="E135">
         <v>704</v>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>63027.471</v>
+        <v>63.027471</v>
       </c>
       <c r="H135">
         <v>60.42910279237423</v>
@@ -7117,7 +7117,7 @@
         <v>0.2584231246252591</v>
       </c>
       <c r="K135">
-        <v>0.1154192841974872</v>
+        <v>0.1289233404485932</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="D136">
-        <v>3266</v>
+        <v>3.266</v>
       </c>
       <c r="E136">
         <v>810</v>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>87171.12300000001</v>
+        <v>87.17112300000001</v>
       </c>
       <c r="H136">
         <v>60.56798721025154</v>
@@ -7167,7 +7167,7 @@
         <v>0.09014689249536229</v>
       </c>
       <c r="K136">
-        <v>0.1154192841974872</v>
+        <v>0.3769593821889931</v>
       </c>
       <c r="L136">
         <v>11.478</v>
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="D137">
-        <v>4888</v>
+        <v>4.888</v>
       </c>
       <c r="E137">
         <v>533</v>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>215716.925</v>
+        <v>215.716925</v>
       </c>
       <c r="H137">
         <v>60.69952779016341</v>
@@ -7217,7 +7217,7 @@
         <v>0.7778414967177079</v>
       </c>
       <c r="K137">
-        <v>0.1154192841974872</v>
+        <v>0.5641694611573173</v>
       </c>
       <c r="L137">
         <v>249.121</v>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="D138">
-        <v>2685</v>
+        <v>2.685</v>
       </c>
       <c r="E138">
         <v>754</v>
@@ -7255,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>102598.145</v>
+        <v>102.598145</v>
       </c>
       <c r="H138">
         <v>60.86113755857946</v>
@@ -7267,7 +7267,7 @@
         <v>0.7388586285799233</v>
       </c>
       <c r="K138">
-        <v>0.1154192841974872</v>
+        <v>0.3099007780702531</v>
       </c>
       <c r="L138">
         <v>280.203</v>
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="D139">
-        <v>4835</v>
+        <v>4.835</v>
       </c>
       <c r="E139">
         <v>1175</v>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>79173.77499999999</v>
+        <v>79.17377499999999</v>
       </c>
       <c r="H139">
         <v>60.6302777634544</v>
@@ -7317,7 +7317,7 @@
         <v>0.1852096905344709</v>
       </c>
       <c r="K139">
-        <v>0.1154192841974872</v>
+        <v>0.5580522390948505</v>
       </c>
       <c r="L139">
         <v>46.767</v>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="D140">
-        <v>4527</v>
+        <v>4.527</v>
       </c>
       <c r="E140">
         <v>1855</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>218577.411</v>
+        <v>218.577411</v>
       </c>
       <c r="H140">
         <v>60.61527778209634</v>
@@ -7367,7 +7367,7 @@
         <v>10.35393475307653</v>
       </c>
       <c r="K140">
-        <v>0.1154192841974872</v>
+        <v>0.5225030995620245</v>
       </c>
       <c r="L140">
         <v>424.432</v>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="D141">
-        <v>3530</v>
+        <v>3.53</v>
       </c>
       <c r="E141">
         <v>842</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>43517.47500000001</v>
+        <v>43.51747500000001</v>
       </c>
       <c r="H141">
         <v>60.04591389490562</v>
@@ -7417,7 +7417,7 @@
         <v>14.92956624239952</v>
       </c>
       <c r="K141">
-        <v>0.1154192841974872</v>
+        <v>0.4074300732171297</v>
       </c>
       <c r="L141">
         <v>16.265</v>
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="D142">
-        <v>2797</v>
+        <v>2.797</v>
       </c>
       <c r="E142">
         <v>562</v>
@@ -7467,7 +7467,7 @@
         <v>19.13529090656759</v>
       </c>
       <c r="K142">
-        <v>0.1154192841974872</v>
+        <v>0.3228277379003716</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="D143">
-        <v>1414</v>
+        <v>1.414</v>
       </c>
       <c r="E143">
         <v>449</v>
@@ -7517,7 +7517,7 @@
         <v>28.50470453256503</v>
       </c>
       <c r="K143">
-        <v>0.1154192841974872</v>
+        <v>0.1632028678552468</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="D144">
-        <v>2466</v>
+        <v>2.466</v>
       </c>
       <c r="E144">
         <v>2502</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>45757.457</v>
+        <v>45.757457</v>
       </c>
       <c r="H144">
         <v>60.26705832417701</v>
@@ -7567,7 +7567,7 @@
         <v>0.09831866149707739</v>
       </c>
       <c r="K144">
-        <v>0.1154192841974872</v>
+        <v>0.2846239548310034</v>
       </c>
       <c r="L144">
         <v>44.137</v>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="D145">
-        <v>18109</v>
+        <v>18.109</v>
       </c>
       <c r="E145">
         <v>1036</v>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <v>169071.801</v>
+        <v>169.071801</v>
       </c>
       <c r="H145">
         <v>60.1911666202498</v>
@@ -7617,7 +7617,7 @@
         <v>0.6042928010765792</v>
       </c>
       <c r="K145">
-        <v>0.263066206620402</v>
+        <v>4.763865935688862</v>
       </c>
       <c r="L145">
         <v>28.103</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="D146">
-        <v>33441</v>
+        <v>33.441</v>
       </c>
       <c r="E146">
         <v>351</v>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>807946.3690000001</v>
+        <v>807.9463690000001</v>
       </c>
       <c r="H146">
         <v>60.79450279829933</v>
@@ -7667,7 +7667,7 @@
         <v>0.6223247982185515</v>
       </c>
       <c r="K146">
-        <v>0.263066206620402</v>
+        <v>8.797197015592864</v>
       </c>
       <c r="L146">
         <v>195.164</v>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="D147">
-        <v>29011</v>
+        <v>29.011</v>
       </c>
       <c r="E147">
         <v>478</v>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>499234.38</v>
+        <v>499.23438</v>
       </c>
       <c r="H147">
         <v>61.11463337199304</v>
@@ -7717,7 +7717,7 @@
         <v>0.1090812398929176</v>
       </c>
       <c r="K147">
-        <v>0.263066206620402</v>
+        <v>7.631813720264483</v>
       </c>
       <c r="L147">
         <v>484.011</v>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="D148">
-        <v>31175</v>
+        <v>31.175</v>
       </c>
       <c r="E148">
         <v>671</v>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="G148">
-        <v>517347.945</v>
+        <v>517.347945</v>
       </c>
       <c r="H148">
         <v>60.79471389533736</v>
@@ -7767,7 +7767,7 @@
         <v>0.5889576174885139</v>
       </c>
       <c r="K148">
-        <v>0.263066206620402</v>
+        <v>8.201088991391034</v>
       </c>
       <c r="L148">
         <v>152.223</v>
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="D149">
-        <v>35911</v>
+        <v>35.911</v>
       </c>
       <c r="E149">
         <v>1280</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="G149">
-        <v>603727.959</v>
+        <v>603.7279590000001</v>
       </c>
       <c r="H149">
         <v>60.88215555822705</v>
@@ -7817,7 +7817,7 @@
         <v>0.4807039545044681</v>
       </c>
       <c r="K149">
-        <v>0.263066206620402</v>
+        <v>9.446970545945257</v>
       </c>
       <c r="L149">
         <v>111.736</v>
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="D150">
-        <v>7931</v>
+        <v>7.931</v>
       </c>
       <c r="E150">
         <v>369</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>89844.708</v>
+        <v>89.844708</v>
       </c>
       <c r="H150">
         <v>60.81770280684493</v>
@@ -7867,7 +7867,7 @@
         <v>0.3545766628189942</v>
       </c>
       <c r="K150">
-        <v>0.263066206620402</v>
+        <v>2.086378084706408</v>
       </c>
       <c r="L150">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="D151">
-        <v>21691</v>
+        <v>21.691</v>
       </c>
       <c r="E151">
         <v>724</v>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="G151">
-        <v>182306.778</v>
+        <v>182.306778</v>
       </c>
       <c r="H151">
         <v>60.71575837602714</v>
@@ -7917,7 +7917,7 @@
         <v>0.1365263713343825</v>
       </c>
       <c r="K151">
-        <v>0.263066206620402</v>
+        <v>5.706169087803141</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="D152">
-        <v>5006</v>
+        <v>5.006</v>
       </c>
       <c r="E152">
         <v>508</v>
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <v>28297.728</v>
+        <v>28.297728</v>
       </c>
       <c r="H152">
         <v>60.39194996381226</v>
@@ -7967,7 +7967,7 @@
         <v>6.565712132180263</v>
       </c>
       <c r="K152">
-        <v>0.263066206620402</v>
+        <v>1.316909430341733</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="D153">
-        <v>8150</v>
+        <v>8.15</v>
       </c>
       <c r="E153">
         <v>517</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="G153">
-        <v>114165.707</v>
+        <v>114.165707</v>
       </c>
       <c r="H153">
         <v>60.25455000086713</v>
@@ -8017,7 +8017,7 @@
         <v>0.1395806020846108</v>
       </c>
       <c r="K153">
-        <v>0.263066206620402</v>
+        <v>2.143989583956277</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="D154">
-        <v>6059</v>
+        <v>6.059</v>
       </c>
       <c r="E154">
         <v>640</v>
@@ -8067,7 +8067,7 @@
         <v>23.34241230697415</v>
       </c>
       <c r="K154">
-        <v>0.263066206620402</v>
+        <v>1.593918145913016</v>
       </c>
       <c r="L154">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="D155">
-        <v>4513</v>
+        <v>4.513</v>
       </c>
       <c r="E155">
         <v>837</v>
@@ -8117,7 +8117,7 @@
         <v>18.11746831209543</v>
       </c>
       <c r="K155">
-        <v>0.263066206620402</v>
+        <v>1.187217790477874</v>
       </c>
       <c r="L155">
         <v>4.301</v>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="D156">
-        <v>7247</v>
+        <v>7.247</v>
       </c>
       <c r="E156">
         <v>1041</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>135578.229</v>
+        <v>135.578229</v>
       </c>
       <c r="H156">
         <v>60.61363334941402</v>
@@ -8167,7 +8167,7 @@
         <v>0.1291849542986959</v>
       </c>
       <c r="K156">
-        <v>0.263066206620402</v>
+        <v>1.906440799378053</v>
       </c>
       <c r="L156">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="D157">
-        <v>3559</v>
+        <v>3.559</v>
       </c>
       <c r="E157">
         <v>705</v>
@@ -8217,7 +8217,7 @@
         <v>12.1540069035681</v>
       </c>
       <c r="K157">
-        <v>0.263066206620402</v>
+        <v>0.9362526293620109</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="D158">
-        <v>21899</v>
+        <v>21.899</v>
       </c>
       <c r="E158">
         <v>1229</v>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="G158">
-        <v>382214.0360000001</v>
+        <v>382.2140360000001</v>
       </c>
       <c r="H158">
         <v>60.88158888490153</v>
@@ -8267,7 +8267,7 @@
         <v>0.1963204874127523</v>
       </c>
       <c r="K158">
-        <v>0.263066206620402</v>
+        <v>5.760886858780184</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="D159">
-        <v>6542</v>
+        <v>6.542</v>
       </c>
       <c r="E159">
         <v>3014</v>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <v>158819.714</v>
+        <v>158.819714</v>
       </c>
       <c r="H159">
         <v>61.31548337517039</v>
@@ -8317,7 +8317,7 @@
         <v>0.1496034391928167</v>
       </c>
       <c r="K159">
-        <v>0.263066206620402</v>
+        <v>1.72097912371067</v>
       </c>
       <c r="L159">
         <v>62.906</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="D160">
-        <v>4205</v>
+        <v>4.205</v>
       </c>
       <c r="E160">
         <v>1340</v>
@@ -8355,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>99471.113</v>
+        <v>99.471113</v>
       </c>
       <c r="H160">
         <v>61.1319888524735</v>
@@ -8367,7 +8367,7 @@
         <v>0.1242582555147872</v>
       </c>
       <c r="K160">
-        <v>0.263066206620402</v>
+        <v>1.106193398838791</v>
       </c>
       <c r="L160">
         <v>8.869999999999999</v>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="D161">
-        <v>2250</v>
+        <v>2.25</v>
       </c>
       <c r="E161">
         <v>2166</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <v>45232.05299999999</v>
+        <v>45.23205299999999</v>
       </c>
       <c r="H161">
         <v>61.57197780659627</v>
@@ -8417,7 +8417,7 @@
         <v>0.2458689789293552</v>
       </c>
       <c r="K161">
-        <v>0.263066206620402</v>
+        <v>0.5918989648959045</v>
       </c>
       <c r="L161">
         <v>19.284</v>
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="D162">
-        <v>1846</v>
+        <v>1.846</v>
       </c>
       <c r="E162">
         <v>3180</v>
@@ -8467,7 +8467,7 @@
         <v>35.59596733093358</v>
       </c>
       <c r="K162">
-        <v>0.263066206620402</v>
+        <v>0.4856202174212622</v>
       </c>
       <c r="L162">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>1326</v>
+        <v>1.326</v>
       </c>
       <c r="E163">
         <v>2197</v>
@@ -8517,7 +8517,7 @@
         <v>51.75206548953076</v>
       </c>
       <c r="K163">
-        <v>0.263066206620402</v>
+        <v>0.3488257899786531</v>
       </c>
       <c r="L163">
         <v>44.363</v>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="D164">
-        <v>1606</v>
+        <v>1.606</v>
       </c>
       <c r="E164">
         <v>1123</v>
@@ -8567,7 +8567,7 @@
         <v>18.64260989042208</v>
       </c>
       <c r="K164">
-        <v>0.263066206620402</v>
+        <v>0.4224843278323657</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="D165">
-        <v>5722</v>
+        <v>5.722</v>
       </c>
       <c r="E165">
         <v>1880</v>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="G165">
-        <v>161402.57</v>
+        <v>161.40257</v>
       </c>
       <c r="H165">
         <v>62.27386387384815</v>
@@ -8617,7 +8617,7 @@
         <v>0.5665412199713554</v>
       </c>
       <c r="K165">
-        <v>0.263066206620402</v>
+        <v>1.50526483428194</v>
       </c>
       <c r="L165">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D166">
-        <v>2509</v>
+        <v>2.509</v>
       </c>
       <c r="E166">
         <v>942</v>
@@ -8667,7 +8667,7 @@
         <v>20.2635563433345</v>
       </c>
       <c r="K166">
-        <v>0.263066206620402</v>
+        <v>0.6600331124105886</v>
       </c>
       <c r="L166">
         <v>7.21</v>
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="D167">
-        <v>1540</v>
+        <v>1.54</v>
       </c>
       <c r="E167">
         <v>1277</v>
@@ -8717,7 +8717,7 @@
         <v>43.41589765311886</v>
       </c>
       <c r="K167">
-        <v>0.263066206620402</v>
+        <v>0.4051219581954191</v>
       </c>
       <c r="L167">
         <v>18.351</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="D168">
-        <v>1895</v>
+        <v>1.895</v>
       </c>
       <c r="E168">
         <v>1040</v>
@@ -8767,7 +8767,7 @@
         <v>11.90064572984403</v>
       </c>
       <c r="K168">
-        <v>0.263066206620402</v>
+        <v>0.4985104615456619</v>
       </c>
       <c r="L168">
         <v>0</v>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="D169">
-        <v>2516</v>
+        <v>2.516</v>
       </c>
       <c r="E169">
         <v>1364</v>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>88098.978</v>
+        <v>88.098978</v>
       </c>
       <c r="H169">
         <v>61.98581110366104</v>
@@ -8817,7 +8817,7 @@
         <v>11.69718802868735</v>
       </c>
       <c r="K169">
-        <v>0.263066206620402</v>
+        <v>0.6618745758569314</v>
       </c>
       <c r="L169">
         <v>127.348</v>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D170">
-        <v>2006</v>
+        <v>2.006</v>
       </c>
       <c r="E170">
         <v>2259</v>
@@ -8867,7 +8867,7 @@
         <v>14.62416162470969</v>
       </c>
       <c r="K170">
-        <v>0.263066206620402</v>
+        <v>0.5277108104805264</v>
       </c>
       <c r="L170">
         <v>12.482</v>
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="D171">
-        <v>2179</v>
+        <v>2.179</v>
       </c>
       <c r="E171">
         <v>2076</v>
@@ -8917,7 +8917,7 @@
         <v>16.77553921578923</v>
       </c>
       <c r="K171">
-        <v>0.263066206620402</v>
+        <v>0.573221264225856</v>
       </c>
       <c r="L171">
         <v>53.401</v>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="D172">
-        <v>2215</v>
+        <v>2.215</v>
       </c>
       <c r="E172">
         <v>1969</v>
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>64760.755</v>
+        <v>64.760755</v>
       </c>
       <c r="H172">
         <v>61.83638399067473</v>
@@ -8967,7 +8967,7 @@
         <v>0.09839248429891978</v>
       </c>
       <c r="K172">
-        <v>0.263066206620402</v>
+        <v>0.5826916476641905</v>
       </c>
       <c r="L172">
         <v>178.017</v>
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="D173">
-        <v>3529</v>
+        <v>3.529</v>
       </c>
       <c r="E173">
         <v>1330</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>55093.43900000001</v>
+        <v>55.09343900000001</v>
       </c>
       <c r="H173">
         <v>61.87564165852229</v>
@@ -9017,7 +9017,7 @@
         <v>0.1389104800363292</v>
       </c>
       <c r="K173">
-        <v>0.263066206620402</v>
+        <v>0.9283606431633986</v>
       </c>
       <c r="L173">
         <v>127.798</v>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="D174">
-        <v>5553</v>
+        <v>5.553</v>
       </c>
       <c r="E174">
         <v>1141</v>
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>181242.601</v>
+        <v>181.242601</v>
       </c>
       <c r="H174">
         <v>61.59558058772471</v>
@@ -9067,7 +9067,7 @@
         <v>1.211567546742836</v>
       </c>
       <c r="K174">
-        <v>0.263066206620402</v>
+        <v>1.460806645363092</v>
       </c>
       <c r="L174">
         <v>46.751</v>
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="D175">
-        <v>5623</v>
+        <v>5.623</v>
       </c>
       <c r="E175">
         <v>905</v>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="G175">
-        <v>124499.042</v>
+        <v>124.499042</v>
       </c>
       <c r="H175">
         <v>61.77277500724719</v>
@@ -9117,7 +9117,7 @@
         <v>0.3854271986227933</v>
       </c>
       <c r="K175">
-        <v>0.263066206620402</v>
+        <v>1.479221279826521</v>
       </c>
       <c r="L175">
         <v>120.682</v>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="D176">
-        <v>3128</v>
+        <v>3.128</v>
       </c>
       <c r="E176">
         <v>742</v>
@@ -9167,7 +9167,7 @@
         <v>10.9867821061136</v>
       </c>
       <c r="K176">
-        <v>0.263066206620402</v>
+        <v>0.8228710943086177</v>
       </c>
       <c r="L176">
         <v>71.30500000000001</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="D177">
-        <v>4447</v>
+        <v>4.447</v>
       </c>
       <c r="E177">
         <v>1248</v>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>123152.729</v>
+        <v>123.152729</v>
       </c>
       <c r="H177">
         <v>61.52979718010091</v>
@@ -9217,7 +9217,7 @@
         <v>0.1541410432908294</v>
       </c>
       <c r="K177">
-        <v>0.263066206620402</v>
+        <v>1.169855420840928</v>
       </c>
       <c r="L177">
         <v>114.666</v>
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="D178">
-        <v>5134</v>
+        <v>5.134</v>
       </c>
       <c r="E178">
         <v>640</v>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>204586.195</v>
+        <v>204.586195</v>
       </c>
       <c r="H178">
         <v>61.26494167382299</v>
@@ -9267,7 +9267,7 @@
         <v>2.513785071144293</v>
       </c>
       <c r="K178">
-        <v>0.263066206620402</v>
+        <v>1.350581904789144</v>
       </c>
       <c r="L178">
         <v>210.399</v>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D179">
-        <v>6174</v>
+        <v>6.174</v>
       </c>
       <c r="E179">
         <v>1191</v>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>104762.72</v>
+        <v>104.76272</v>
       </c>
       <c r="H179">
         <v>61.22684720423947</v>
@@ -9317,7 +9317,7 @@
         <v>0.04926535655952986</v>
       </c>
       <c r="K179">
-        <v>0.263066206620402</v>
+        <v>1.624170759674362</v>
       </c>
       <c r="L179">
         <v>75.962</v>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="D180">
-        <v>14827</v>
+        <v>14.827</v>
       </c>
       <c r="E180">
         <v>563</v>
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>174592.047</v>
+        <v>174.592047</v>
       </c>
       <c r="H180">
         <v>60.67658330208573</v>
@@ -9367,7 +9367,7 @@
         <v>0.1547414740570296</v>
       </c>
       <c r="K180">
-        <v>0.263066206620402</v>
+        <v>3.900482645560701</v>
       </c>
       <c r="L180">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="D181">
-        <v>13649</v>
+        <v>13.649</v>
       </c>
       <c r="E181">
         <v>251</v>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>208588.79</v>
+        <v>208.58879</v>
       </c>
       <c r="H181">
         <v>60.72593052734061</v>
@@ -9417,7 +9417,7 @@
         <v>0.5195574582239485</v>
       </c>
       <c r="K181">
-        <v>0.263066206620402</v>
+        <v>3.590590654161867</v>
       </c>
       <c r="L181">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="D182">
-        <v>13660</v>
+        <v>13.66</v>
       </c>
       <c r="E182">
         <v>757</v>
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>283549.317</v>
+        <v>283.549317</v>
       </c>
       <c r="H182">
         <v>60.39293051166074</v>
@@ -9467,7 +9467,7 @@
         <v>4.084950109654622</v>
       </c>
       <c r="K182">
-        <v>0.263066206620402</v>
+        <v>3.593484382434692</v>
       </c>
       <c r="L182">
         <v>32.758</v>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="D183">
-        <v>5597</v>
+        <v>5.597</v>
       </c>
       <c r="E183">
         <v>728</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>75583.23699999999</v>
+        <v>75.583237</v>
       </c>
       <c r="H183">
         <v>60.69943333087118</v>
@@ -9517,7 +9517,7 @@
         <v>0.38502877831572</v>
       </c>
       <c r="K183">
-        <v>0.263066206620402</v>
+        <v>1.47238155845439</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="D184">
-        <v>6544</v>
+        <v>6.544</v>
       </c>
       <c r="E184">
         <v>955</v>
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>135183.106</v>
+        <v>135.183106</v>
       </c>
       <c r="H184">
         <v>60.8347083459899</v>
@@ -9567,7 +9567,7 @@
         <v>0.06460021557635742</v>
       </c>
       <c r="K184">
-        <v>0.263066206620402</v>
+        <v>1.721505256123911</v>
       </c>
       <c r="L184">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="D185">
-        <v>2822</v>
+        <v>2.822</v>
       </c>
       <c r="E185">
         <v>1109</v>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="G185">
-        <v>82182.08199999999</v>
+        <v>82.18208199999999</v>
       </c>
       <c r="H185">
         <v>60.82241663485531</v>
@@ -9617,7 +9617,7 @@
         <v>0.2783288503990998</v>
       </c>
       <c r="K185">
-        <v>0.263066206620402</v>
+        <v>0.7423728350827745</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="D186">
-        <v>1254</v>
+        <v>1.254</v>
       </c>
       <c r="E186">
         <v>459</v>
@@ -9667,7 +9667,7 @@
         <v>8.701573183386968</v>
       </c>
       <c r="K186">
-        <v>0.263066206620402</v>
+        <v>0.3298850231019841</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="D187">
-        <v>6455</v>
+        <v>6.455</v>
       </c>
       <c r="E187">
         <v>906</v>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>288978.887</v>
+        <v>288.978887</v>
       </c>
       <c r="H187">
         <v>60.98531725451569</v>
@@ -9717,7 +9717,7 @@
         <v>0.1216885211645882</v>
       </c>
       <c r="K187">
-        <v>0.263066206620402</v>
+        <v>1.698092363734695</v>
       </c>
       <c r="L187">
         <v>275.901</v>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="D188">
-        <v>2142</v>
+        <v>2.142</v>
       </c>
       <c r="E188">
         <v>457</v>
@@ -9767,7 +9767,7 @@
         <v>17.77337868055693</v>
       </c>
       <c r="K188">
-        <v>0.263066206620402</v>
+        <v>0.5634878145809011</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="D189">
-        <v>3311</v>
+        <v>3.311</v>
       </c>
       <c r="E189">
         <v>970</v>
@@ -9805,7 +9805,7 @@
         <v>1</v>
       </c>
       <c r="G189">
-        <v>106667.862</v>
+        <v>106.667862</v>
       </c>
       <c r="H189">
         <v>61.13376663469673</v>
@@ -9817,7 +9817,7 @@
         <v>15.44746249455348</v>
       </c>
       <c r="K189">
-        <v>0.263066206620402</v>
+        <v>0.8710122101201511</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="D190">
-        <v>1648</v>
+        <v>1.648</v>
       </c>
       <c r="E190">
         <v>1505</v>
@@ -9867,7 +9867,7 @@
         <v>22.62380416316881</v>
       </c>
       <c r="K190">
-        <v>0.2630662066204021</v>
+        <v>0.4335331085104225</v>
       </c>
       <c r="L190">
         <v>29.174</v>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="D191">
-        <v>28039</v>
+        <v>28.039</v>
       </c>
       <c r="E191">
         <v>71</v>
@@ -9905,7 +9905,7 @@
         <v>2</v>
       </c>
       <c r="G191">
-        <v>664807.8119999999</v>
+        <v>664.8078119999999</v>
       </c>
       <c r="H191">
         <v>59.41545003541476</v>
@@ -9917,7 +9917,7 @@
         <v>0.05898134776849696</v>
       </c>
       <c r="K191">
-        <v>0.1213125457722875</v>
+        <v>3.401482470909169</v>
       </c>
       <c r="L191">
         <v>99.22199999999999</v>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D192">
-        <v>27005</v>
+        <v>27.005</v>
       </c>
       <c r="E192">
         <v>432</v>
@@ -9955,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="G192">
-        <v>392951.758</v>
+        <v>392.951758</v>
       </c>
       <c r="H192">
         <v>59.48975274348349</v>
@@ -9967,7 +9967,7 @@
         <v>0.3571474560159163</v>
       </c>
       <c r="K192">
-        <v>0.1213125457722875</v>
+        <v>3.276045298580623</v>
       </c>
       <c r="L192">
         <v>26.283</v>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="D193">
-        <v>59830</v>
+        <v>59.83</v>
       </c>
       <c r="E193">
         <v>329</v>
@@ -10005,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="G193">
-        <v>836502.429</v>
+        <v>836.502429</v>
       </c>
       <c r="H193">
         <v>59.27114169419097</v>
@@ -10017,7 +10017,7 @@
         <v>0.2460220202101476</v>
       </c>
       <c r="K193">
-        <v>0.1213125457722875</v>
+        <v>7.25812961355596</v>
       </c>
       <c r="L193">
         <v>126.849</v>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="D194">
-        <v>66758</v>
+        <v>66.758</v>
       </c>
       <c r="E194">
         <v>422</v>
@@ -10055,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="G194">
-        <v>1269090.264</v>
+        <v>1269.090264</v>
       </c>
       <c r="H194">
         <v>59.12883331618069</v>
@@ -10067,7 +10067,7 @@
         <v>0.3234763858921812</v>
       </c>
       <c r="K194">
-        <v>0.1213125457722875</v>
+        <v>8.098582930666367</v>
       </c>
       <c r="L194">
         <v>475.192</v>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="D195">
-        <v>48870</v>
+        <v>48.87</v>
       </c>
       <c r="E195">
         <v>813</v>
@@ -10105,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="G195">
-        <v>837894.1089999999</v>
+        <v>837.894109</v>
       </c>
       <c r="H195">
         <v>59.05233614715662</v>
@@ -10117,7 +10117,7 @@
         <v>0.1969578895600295</v>
       </c>
       <c r="K195">
-        <v>0.1213125457722875</v>
+        <v>5.928544111891688</v>
       </c>
       <c r="L195">
         <v>533.586</v>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="D196">
-        <v>27569</v>
+        <v>27.569</v>
       </c>
       <c r="E196">
         <v>100</v>
@@ -10155,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="G196">
-        <v>880198.6089999999</v>
+        <v>880.1986089999999</v>
       </c>
       <c r="H196">
         <v>59.22409735376401</v>
@@ -10167,7 +10167,7 @@
         <v>3.215480427902407</v>
       </c>
       <c r="K196">
-        <v>0.1213125457722875</v>
+        <v>3.344465574396194</v>
       </c>
       <c r="L196">
         <v>49.003</v>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="D197">
-        <v>37289</v>
+        <v>37.289</v>
       </c>
       <c r="E197">
         <v>164</v>
@@ -10205,7 +10205,7 @@
         <v>2</v>
       </c>
       <c r="G197">
-        <v>606442.7129999999</v>
+        <v>606.4427129999999</v>
       </c>
       <c r="H197">
         <v>59.14171669916274</v>
@@ -10217,7 +10217,7 @@
         <v>0.2544968056541027</v>
       </c>
       <c r="K197">
-        <v>0.1150892822003452</v>
+        <v>4.291564243968672</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="D198">
-        <v>56866</v>
+        <v>56.866</v>
       </c>
       <c r="E198">
         <v>779</v>
@@ -10255,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="G198">
-        <v>859495.796</v>
+        <v>859.4957959999999</v>
       </c>
       <c r="H198">
         <v>59.20748889042469</v>
@@ -10267,7 +10267,7 @@
         <v>0.4546773931302328</v>
       </c>
       <c r="K198">
-        <v>0.1150892822003452</v>
+        <v>6.544667121604831</v>
       </c>
       <c r="L198">
         <v>96.80500000000001</v>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="D199">
-        <v>13333</v>
+        <v>13.333</v>
       </c>
       <c r="E199">
         <v>984</v>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="G199">
-        <v>249673.761</v>
+        <v>249.673761</v>
       </c>
       <c r="H199">
         <v>59.55991948469606</v>
@@ -10317,7 +10317,7 @@
         <v>0.4381821180038982</v>
       </c>
       <c r="K199">
-        <v>0.1150892822003452</v>
+        <v>1.534485399577203</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="D200">
-        <v>2389</v>
+        <v>2.389</v>
       </c>
       <c r="E200">
         <v>214</v>
@@ -10367,7 +10367,7 @@
         <v>10.86642351864751</v>
       </c>
       <c r="K200">
-        <v>0.1150892822003452</v>
+        <v>0.2749482951766247</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="D201">
-        <v>14310</v>
+        <v>14.31</v>
       </c>
       <c r="E201">
         <v>304</v>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>334774.039</v>
+        <v>334.774039</v>
       </c>
       <c r="H201">
         <v>59.00158607869428</v>
@@ -10417,7 +10417,7 @@
         <v>5.763810638248148</v>
       </c>
       <c r="K201">
-        <v>0.1150892822003452</v>
+        <v>1.64692762828694</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="D202">
-        <v>10446</v>
+        <v>10.446</v>
       </c>
       <c r="E202">
         <v>305</v>
@@ -10455,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="G202">
-        <v>272755.364</v>
+        <v>272.755364</v>
       </c>
       <c r="H202">
         <v>58.86791109848743</v>
@@ -10467,7 +10467,7 @@
         <v>0.3014094583293211</v>
       </c>
       <c r="K202">
-        <v>0.1150892822003452</v>
+        <v>1.202222641864806</v>
       </c>
       <c r="L202">
         <v>126.92</v>
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="D203">
-        <v>4067</v>
+        <v>4.067</v>
       </c>
       <c r="E203">
         <v>1063</v>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="G203">
-        <v>70802.405</v>
+        <v>70.80240499999999</v>
       </c>
       <c r="H203">
         <v>59.09755556428226</v>
@@ -10517,7 +10517,7 @@
         <v>0.8379941136563052</v>
       </c>
       <c r="K203">
-        <v>0.1150892822003452</v>
+        <v>0.4680681107088039</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="D204">
-        <v>6558</v>
+        <v>6.558</v>
       </c>
       <c r="E204">
         <v>430</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="G204">
-        <v>57025.29500000001</v>
+        <v>57.02529500000001</v>
       </c>
       <c r="H204">
         <v>59.27931113697218</v>
@@ -10567,7 +10567,7 @@
         <v>0.2174362098749884</v>
       </c>
       <c r="K204">
-        <v>0.1150892822003452</v>
+        <v>0.7547555126698638</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D205">
-        <v>11135</v>
+        <v>11.135</v>
       </c>
       <c r="E205">
         <v>519</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="G205">
-        <v>175067.314</v>
+        <v>175.067314</v>
       </c>
       <c r="H205">
         <v>59.41285204841313</v>
@@ -10617,7 +10617,7 @@
         <v>0.3256756962935716</v>
       </c>
       <c r="K205">
-        <v>0.1150892822003452</v>
+        <v>1.281519157300844</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="D206">
-        <v>2981</v>
+        <v>2.981</v>
       </c>
       <c r="E206">
         <v>715</v>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="G206">
-        <v>113486.84</v>
+        <v>113.48684</v>
       </c>
       <c r="H206">
         <v>59.48273884673272</v>
@@ -10667,7 +10667,7 @@
         <v>0.1656005010971775</v>
       </c>
       <c r="K206">
-        <v>0.1150892822003452</v>
+        <v>0.3430811502392291</v>
       </c>
       <c r="L206">
         <v>56.905</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="D207">
-        <v>1646</v>
+        <v>1.646</v>
       </c>
       <c r="E207">
         <v>792</v>
@@ -10717,7 +10717,7 @@
         <v>19.57946854421389</v>
       </c>
       <c r="K207">
-        <v>0.1150892822003452</v>
+        <v>0.1894369585017682</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="D208">
-        <v>5529</v>
+        <v>5.529</v>
       </c>
       <c r="E208">
         <v>2045</v>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="G208">
-        <v>105501.098</v>
+        <v>105.501098</v>
       </c>
       <c r="H208">
         <v>59.87869996204768</v>
@@ -10767,7 +10767,7 @@
         <v>0.1923712985442573</v>
       </c>
       <c r="K208">
-        <v>0.1150892822003452</v>
+        <v>0.6363286412857087</v>
       </c>
       <c r="L208">
         <v>163.09</v>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="D209">
-        <v>2473</v>
+        <v>2.473</v>
       </c>
       <c r="E209">
         <v>708</v>
@@ -10817,7 +10817,7 @@
         <v>11.66090679378216</v>
       </c>
       <c r="K209">
-        <v>0.1150892822003452</v>
+        <v>0.2846157948814537</v>
       </c>
       <c r="L209">
         <v>21.278</v>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="D210">
-        <v>1486</v>
+        <v>1.486</v>
       </c>
       <c r="E210">
         <v>905</v>
@@ -10867,7 +10867,7 @@
         <v>32.0849167608447</v>
       </c>
       <c r="K210">
-        <v>0.1150892822003452</v>
+        <v>0.171022673349713</v>
       </c>
       <c r="L210">
         <v>14.107</v>
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="D211">
-        <v>1256</v>
+        <v>1.256</v>
       </c>
       <c r="E211">
         <v>1280</v>
@@ -10917,7 +10917,7 @@
         <v>43.25940876565175</v>
       </c>
       <c r="K211">
-        <v>0.1150892822003452</v>
+        <v>0.1445521384436336</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="D212">
-        <v>2238</v>
+        <v>2.238</v>
       </c>
       <c r="E212">
         <v>985</v>
@@ -10967,7 +10967,7 @@
         <v>13.73746092531306</v>
       </c>
       <c r="K212">
-        <v>0.1150892822003452</v>
+        <v>0.2575698135643726</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="D213">
-        <v>3861</v>
+        <v>3.861</v>
       </c>
       <c r="E213">
         <v>3106</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="G213">
-        <v>76820.477</v>
+        <v>76.820477</v>
       </c>
       <c r="H213">
         <v>59.56925281470694</v>
@@ -11017,7 +11017,7 @@
         <v>0.0948970168792496</v>
       </c>
       <c r="K213">
-        <v>0.1150892822003452</v>
+        <v>0.4443597185755329</v>
       </c>
       <c r="L213">
         <v>117.606</v>
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="D214">
-        <v>6687</v>
+        <v>6.687</v>
       </c>
       <c r="E214">
         <v>184</v>
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="G214">
-        <v>141013.447</v>
+        <v>141.013447</v>
       </c>
       <c r="H214">
         <v>58.71857777785023</v>
@@ -11067,7 +11067,7 @@
         <v>1.288269984097876</v>
       </c>
       <c r="K214">
-        <v>0.1158574341688703</v>
+        <v>0.7747386622872361</v>
       </c>
       <c r="L214">
         <v>52.622</v>
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="D215">
-        <v>25419</v>
+        <v>25.419</v>
       </c>
       <c r="E215">
         <v>304</v>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="G215">
-        <v>327752.684</v>
+        <v>327.752684</v>
       </c>
       <c r="H215">
         <v>58.34626666298103</v>
@@ -11117,7 +11117,7 @@
         <v>0.5539431119749834</v>
       </c>
       <c r="K215">
-        <v>0.1158574341688703</v>
+        <v>2.944980119138516</v>
       </c>
       <c r="L215">
         <v>108.59</v>
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="D216">
-        <v>46568</v>
+        <v>46.568</v>
       </c>
       <c r="E216">
         <v>270</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="G216">
-        <v>657340.107</v>
+        <v>657.340107</v>
       </c>
       <c r="H216">
         <v>58.46043608200279</v>
@@ -11167,7 +11167,7 @@
         <v>0.1393292280998202</v>
       </c>
       <c r="K216">
-        <v>0.1158574341688703</v>
+        <v>5.395248994375954</v>
       </c>
       <c r="L216">
         <v>98.17400000000001</v>
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="D217">
-        <v>118221</v>
+        <v>118.221</v>
       </c>
       <c r="E217">
         <v>645</v>
@@ -11205,7 +11205,7 @@
         <v>4</v>
       </c>
       <c r="G217">
-        <v>1927474.775</v>
+        <v>1927.474775</v>
       </c>
       <c r="H217">
         <v>58.14641940512926</v>
@@ -11217,7 +11217,7 @@
         <v>0.3431178133992626</v>
       </c>
       <c r="K217">
-        <v>0.1158574341688703</v>
+        <v>13.69678172487802</v>
       </c>
       <c r="L217">
         <v>136.017</v>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D218">
-        <v>23768</v>
+        <v>23.768</v>
       </c>
       <c r="E218">
         <v>934</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="G218">
-        <v>297698.774</v>
+        <v>297.698774</v>
       </c>
       <c r="H218">
         <v>58.02634859476208</v>
@@ -11267,7 +11267,7 @@
         <v>0.7401090345511043</v>
       </c>
       <c r="K218">
-        <v>0.1158574341688703</v>
+        <v>2.75369949532571</v>
       </c>
       <c r="L218">
         <v>164.097</v>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="D219">
-        <v>9880</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E219">
         <v>263</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="G219">
-        <v>157736.174</v>
+        <v>157.736174</v>
       </c>
       <c r="H219">
         <v>58.09537501082936</v>
@@ -11317,7 +11317,7 @@
         <v>0.1433170112789436</v>
       </c>
       <c r="K219">
-        <v>0.1158574341688703</v>
+        <v>1.144671449588439</v>
       </c>
       <c r="L219">
         <v>32.764</v>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="D220">
-        <v>9329</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="E220">
         <v>544</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="G220">
-        <v>138930.686</v>
+        <v>138.930686</v>
       </c>
       <c r="H220">
         <v>58.29790276822189</v>
@@ -11367,7 +11367,7 @@
         <v>0.1785765347398501</v>
       </c>
       <c r="K220">
-        <v>0.1158574341688704</v>
+        <v>1.080834003361392</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="D221">
-        <v>2492</v>
+        <v>2.492</v>
       </c>
       <c r="E221">
         <v>322</v>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="G221">
-        <v>202000.73</v>
+        <v>202.00073</v>
       </c>
       <c r="H221">
         <v>58.88131666729102</v>
@@ -11417,7 +11417,7 @@
         <v>7.118781759855906</v>
       </c>
       <c r="K221">
-        <v>0.1158574341688703</v>
+        <v>0.2887167259488249</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="D222">
-        <v>2285</v>
+        <v>2.285</v>
       </c>
       <c r="E222">
         <v>356</v>
@@ -11467,7 +11467,7 @@
         <v>14.54032494582084</v>
       </c>
       <c r="K222">
-        <v>0.1158574341688703</v>
+        <v>0.2647342370758687</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="D223">
-        <v>6464</v>
+        <v>6.464</v>
       </c>
       <c r="E223">
         <v>224</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="G223">
-        <v>239424.837</v>
+        <v>239.424837</v>
       </c>
       <c r="H223">
         <v>58.62615554570775</v>
@@ -11517,7 +11517,7 @@
         <v>0.2507167563184512</v>
       </c>
       <c r="K223">
-        <v>0.1158574341688703</v>
+        <v>0.748902454467578</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="D224">
-        <v>6260</v>
+        <v>6.26</v>
       </c>
       <c r="E224">
         <v>645</v>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="G224">
-        <v>199482.698</v>
+        <v>199.482698</v>
       </c>
       <c r="H224">
         <v>58.50723051157342</v>
@@ -11567,7 +11567,7 @@
         <v>0.1316084520668817</v>
       </c>
       <c r="K224">
-        <v>0.1158574341688703</v>
+        <v>0.7252675378971284</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="D225">
-        <v>11734</v>
+        <v>11.734</v>
       </c>
       <c r="E225">
         <v>190</v>
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="G225">
-        <v>233821.838</v>
+        <v>233.821838</v>
       </c>
       <c r="H225">
         <v>58.24971670064509</v>
@@ -11617,7 +11617,7 @@
         <v>0.1467485645399196</v>
       </c>
       <c r="K225">
-        <v>0.1158574341688703</v>
+        <v>1.359471132537525</v>
       </c>
       <c r="L225">
         <v>81.604</v>
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="D226">
-        <v>5413</v>
+        <v>5.413</v>
       </c>
       <c r="E226">
         <v>637</v>
@@ -11667,7 +11667,7 @@
         <v>12.69596344383195</v>
       </c>
       <c r="K226">
-        <v>0.1158574341688704</v>
+        <v>0.6271362911560951</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="D227">
-        <v>1778</v>
+        <v>1.778</v>
       </c>
       <c r="E227">
         <v>1131</v>
@@ -11717,7 +11717,7 @@
         <v>29.76882915898827</v>
       </c>
       <c r="K227">
-        <v>0.1158574341688703</v>
+        <v>0.2059945179522515</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="D228">
-        <v>1399</v>
+        <v>1.399</v>
       </c>
       <c r="E228">
         <v>262</v>
@@ -11767,7 +11767,7 @@
         <v>15.84490252028452</v>
       </c>
       <c r="K228">
-        <v>0.1158574341688703</v>
+        <v>0.1620845504022496</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="D229">
-        <v>3828</v>
+        <v>3.828</v>
       </c>
       <c r="E229">
         <v>587</v>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="G229">
-        <v>130385.256</v>
+        <v>130.385256</v>
       </c>
       <c r="H229">
         <v>58.58711948522983</v>
@@ -11817,7 +11817,7 @@
         <v>0.2764243975496639</v>
       </c>
       <c r="K229">
-        <v>0.1158574341688704</v>
+        <v>0.4435022579984357</v>
       </c>
       <c r="L229">
         <v>77.107</v>
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="D230">
-        <v>1162</v>
+        <v>1.162</v>
       </c>
       <c r="E230">
         <v>1312</v>
@@ -11867,7 +11867,7 @@
         <v>27.22048345082452</v>
       </c>
       <c r="K230">
-        <v>0.1158574341688704</v>
+        <v>0.1346263385042273</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D231">
-        <v>1205</v>
+        <v>1.205</v>
       </c>
       <c r="E231">
         <v>1265</v>
@@ -11917,7 +11917,7 @@
         <v>40.00102056568096</v>
       </c>
       <c r="K231">
-        <v>0.1158574341688704</v>
+        <v>0.1396082081734888</v>
       </c>
       <c r="L231">
         <v>27.19</v>
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="D232">
-        <v>1039</v>
+        <v>1.039</v>
       </c>
       <c r="E232">
         <v>1467</v>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="G232">
-        <v>56292.3</v>
+        <v>56.2923</v>
       </c>
       <c r="H232">
         <v>59.35691390380831</v>
@@ -11967,7 +11967,7 @@
         <v>22.57184311281125</v>
       </c>
       <c r="K232">
-        <v>0.1158574341688703</v>
+        <v>0.1203758741014563</v>
       </c>
       <c r="L232">
         <v>60.455</v>
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="D233">
-        <v>15622</v>
+        <v>15.622</v>
       </c>
       <c r="E233">
         <v>384</v>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>156326.105</v>
+        <v>156.326105</v>
       </c>
       <c r="H233">
         <v>58.26871901116595</v>
@@ -12017,7 +12017,7 @@
         <v>0.2757749579871902</v>
       </c>
       <c r="K233">
-        <v>0.1158574341688703</v>
+        <v>1.809924836586093</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="D234">
-        <v>915</v>
+        <v>0.915</v>
       </c>
       <c r="E234">
         <v>888</v>
@@ -12067,7 +12067,7 @@
         <v>23.13184742510173</v>
       </c>
       <c r="K234">
-        <v>0.1158574341688703</v>
+        <v>0.1060095522645164</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="D235">
-        <v>10869</v>
+        <v>10.869</v>
       </c>
       <c r="E235">
         <v>643</v>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="G235">
-        <v>180435.219</v>
+        <v>180.435219</v>
       </c>
       <c r="H235">
         <v>58.13828613509</v>
@@ -12117,7 +12117,7 @@
         <v>0.04873935360284995</v>
       </c>
       <c r="K235">
-        <v>0.1158574341688703</v>
+        <v>1.259254451981452</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="D236">
-        <v>1786</v>
+        <v>1.786</v>
       </c>
       <c r="E236">
         <v>461</v>
@@ -12167,7 +12167,7 @@
         <v>16.5646975382321</v>
       </c>
       <c r="K236">
-        <v>0.1158574341688703</v>
+        <v>0.2069213774256024</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="D237">
-        <v>6163</v>
+        <v>6.163</v>
       </c>
       <c r="E237">
         <v>963</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="G237">
-        <v>58124.628</v>
+        <v>58.12462799999999</v>
       </c>
       <c r="H237">
         <v>58.31602643580776</v>
@@ -12217,7 +12217,7 @@
         <v>0.3123076533525968</v>
       </c>
       <c r="K237">
-        <v>0.1158574341688703</v>
+        <v>0.7140293667827481</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="D238">
-        <v>1902</v>
+        <v>1.902</v>
       </c>
       <c r="E238">
         <v>1554</v>
@@ -12267,7 +12267,7 @@
         <v>41.14923004393636</v>
       </c>
       <c r="K238">
-        <v>0.1158574341688703</v>
+        <v>0.2203608397891914</v>
       </c>
       <c r="L238">
         <v>46.9</v>
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="D239">
-        <v>293709</v>
+        <v>293.709</v>
       </c>
       <c r="E239">
         <v>465</v>
@@ -12305,7 +12305,7 @@
         <v>11</v>
       </c>
       <c r="G239">
-        <v>5472700.12</v>
+        <v>5472.70012</v>
       </c>
       <c r="H239">
         <v>60.39199717482269</v>
@@ -12317,7 +12317,7 @@
         <v>0.3716095705935134</v>
       </c>
       <c r="K239">
-        <v>0.0329645838738725</v>
+        <v>9.681994965011219</v>
       </c>
       <c r="L239">
         <v>2788.04</v>
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="D240">
-        <v>17419</v>
+        <v>17.419</v>
       </c>
       <c r="E240">
         <v>812</v>
@@ -12355,7 +12355,7 @@
         <v>2</v>
       </c>
       <c r="G240">
-        <v>295325.196</v>
+        <v>295.325196</v>
       </c>
       <c r="H240">
         <v>61.60005334484554</v>
@@ -12367,7 +12367,7 @@
         <v>0.08515023406222276</v>
       </c>
       <c r="K240">
-        <v>0.0329645838738725</v>
+        <v>0.5742100864989851</v>
       </c>
       <c r="L240">
         <v>94.15900000000001</v>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="D241">
-        <v>4093</v>
+        <v>4.093</v>
       </c>
       <c r="E241">
         <v>735</v>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="G241">
-        <v>91963.43100000001</v>
+        <v>91.96343100000001</v>
       </c>
       <c r="H241">
         <v>59.66472371172412</v>
@@ -12417,7 +12417,7 @@
         <v>0.3530067155664223</v>
       </c>
       <c r="K241">
-        <v>0.0329645838738725</v>
+        <v>0.1349240417957601</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="D242">
-        <v>5752</v>
+        <v>5.752</v>
       </c>
       <c r="E242">
         <v>246</v>
@@ -12455,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="G242">
-        <v>51519.68</v>
+        <v>51.51968</v>
       </c>
       <c r="H242">
         <v>59.54302498394505</v>
@@ -12467,7 +12467,7 @@
         <v>0.05777457526392184</v>
       </c>
       <c r="K242">
-        <v>0.0329645838738725</v>
+        <v>0.1896122864425146</v>
       </c>
       <c r="L242">
         <v>11.071</v>
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="D243">
-        <v>12365</v>
+        <v>12.365</v>
       </c>
       <c r="E243">
         <v>247</v>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="G243">
-        <v>133251.254</v>
+        <v>133.251254</v>
       </c>
       <c r="H243">
         <v>59.79383887897519</v>
@@ -12517,7 +12517,7 @@
         <v>0.2669401652967638</v>
       </c>
       <c r="K243">
-        <v>0.0329645838738725</v>
+        <v>0.4076070796004335</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D244">
-        <v>19350</v>
+        <v>19.35</v>
       </c>
       <c r="E244">
         <v>144</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="G244">
-        <v>340753.287</v>
+        <v>340.753287</v>
       </c>
       <c r="H244">
         <v>59.78088640349173</v>
@@ -12567,7 +12567,7 @@
         <v>0.2664196182688228</v>
       </c>
       <c r="K244">
-        <v>0.0329645838738725</v>
+        <v>0.6378646979594329</v>
       </c>
       <c r="L244">
         <v>7.81</v>
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="D245">
-        <v>3208</v>
+        <v>3.208</v>
       </c>
       <c r="E245">
         <v>142</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="G245">
-        <v>35903.024</v>
+        <v>35.90302399999999</v>
       </c>
       <c r="H245">
         <v>59.91741111682133</v>
@@ -12617,7 +12617,7 @@
         <v>0.08865003533844382</v>
       </c>
       <c r="K245">
-        <v>0.0329645838738725</v>
+        <v>0.105750385067383</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="D246">
-        <v>2986</v>
+        <v>2.986</v>
       </c>
       <c r="E246">
         <v>255</v>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="G246">
-        <v>49581.369</v>
+        <v>49.581369</v>
       </c>
       <c r="H246">
         <v>60.00578608029492</v>
@@ -12667,7 +12667,7 @@
         <v>4.417113379246748</v>
       </c>
       <c r="K246">
-        <v>0.0329645838738725</v>
+        <v>0.09843224744738328</v>
       </c>
       <c r="L246">
         <v>7.592</v>
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="D247">
-        <v>13175</v>
+        <v>13.175</v>
       </c>
       <c r="E247">
         <v>1091</v>
@@ -12705,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="G247">
-        <v>189212.663</v>
+        <v>189.212663</v>
       </c>
       <c r="H247">
         <v>59.98420834127685</v>
@@ -12717,7 +12717,7 @@
         <v>0.2418814089848647</v>
       </c>
       <c r="K247">
-        <v>0.0329645838738725</v>
+        <v>0.4343083925382702</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="D248">
-        <v>10981</v>
+        <v>10.981</v>
       </c>
       <c r="E248">
         <v>3230</v>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="G248">
-        <v>175806.464</v>
+        <v>175.806464</v>
       </c>
       <c r="H248">
         <v>60.06695320698699</v>
@@ -12767,7 +12767,7 @@
         <v>0.4128821176129059</v>
       </c>
       <c r="K248">
-        <v>0.0329645838738725</v>
+        <v>0.3619840955189939</v>
       </c>
       <c r="L248">
         <v>352.251</v>
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="D249">
-        <v>967</v>
+        <v>0.967</v>
       </c>
       <c r="E249">
         <v>1498</v>
@@ -12817,7 +12817,7 @@
         <v>39.65376716809758</v>
       </c>
       <c r="K249">
-        <v>0.0329645838738725</v>
+        <v>0.03187675260603471</v>
       </c>
       <c r="L249">
         <v>70.75700000000001</v>
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="D250">
-        <v>1100</v>
+        <v>1.1</v>
       </c>
       <c r="E250">
         <v>722</v>
@@ -12867,7 +12867,7 @@
         <v>27.89065600277265</v>
       </c>
       <c r="K250">
-        <v>0.0329645838738725</v>
+        <v>0.03626104226125975</v>
       </c>
       <c r="L250">
         <v>46.571</v>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="D251">
-        <v>16436</v>
+        <v>16.436</v>
       </c>
       <c r="E251">
         <v>2042</v>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <v>340999.178</v>
+        <v>340.999178</v>
       </c>
       <c r="H251">
         <v>60.62773787229864</v>
@@ -12917,7 +12917,7 @@
         <v>0.3475231227950707</v>
       </c>
       <c r="K251">
-        <v>0.0329645838738725</v>
+        <v>0.5418059005509684</v>
       </c>
       <c r="L251">
         <v>370.144</v>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="D252">
-        <v>8517</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="E252">
         <v>617</v>
@@ -12955,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>142398.247</v>
+        <v>142.398247</v>
       </c>
       <c r="H252">
         <v>60.3697749877194</v>
@@ -12967,7 +12967,7 @@
         <v>0.3236913826760266</v>
       </c>
       <c r="K252">
-        <v>0.0329645838738725</v>
+        <v>0.2807593608537721</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="D253">
-        <v>2491</v>
+        <v>2.491</v>
       </c>
       <c r="E253">
         <v>269</v>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="G253">
-        <v>30172.24100000001</v>
+        <v>30.17224100000001</v>
       </c>
       <c r="H253">
         <v>60.37744718929831</v>
@@ -13017,7 +13017,7 @@
         <v>3.18076095465061</v>
       </c>
       <c r="K253">
-        <v>0.0329645838738725</v>
+        <v>0.0821147784298164</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="D254">
-        <v>26342</v>
+        <v>26.342</v>
       </c>
       <c r="E254">
         <v>517</v>
@@ -13055,7 +13055,7 @@
         <v>2</v>
       </c>
       <c r="G254">
-        <v>362151.594</v>
+        <v>362.151594</v>
       </c>
       <c r="H254">
         <v>60.18549590075888</v>
@@ -13067,7 +13067,7 @@
         <v>0.2393246957941821</v>
       </c>
       <c r="K254">
-        <v>0.0329645838738725</v>
+        <v>0.8683530684055494</v>
       </c>
       <c r="L254">
         <v>8.728</v>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="D255">
-        <v>5437</v>
+        <v>5.437</v>
       </c>
       <c r="E255">
         <v>117</v>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="G255">
-        <v>78239.712</v>
+        <v>78.239712</v>
       </c>
       <c r="H255">
         <v>60.09485556215171</v>
@@ -13117,7 +13117,7 @@
         <v>9.8081449638652</v>
       </c>
       <c r="K255">
-        <v>0.0329645838738725</v>
+        <v>0.1792284425222448</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="D256">
-        <v>40105</v>
+        <v>40.105</v>
       </c>
       <c r="E256">
         <v>315</v>
@@ -13155,7 +13155,7 @@
         <v>2</v>
       </c>
       <c r="G256">
-        <v>466022.957</v>
+        <v>466.022957</v>
       </c>
       <c r="H256">
         <v>60.36265408489217</v>
@@ -13167,7 +13167,7 @@
         <v>0.4297904766076208</v>
       </c>
       <c r="K256">
-        <v>0.0329645838738725</v>
+        <v>1.322044636261656</v>
       </c>
       <c r="L256">
         <v>19.269</v>
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D257">
-        <v>30377</v>
+        <v>30.377</v>
       </c>
       <c r="E257">
         <v>101</v>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="G257">
-        <v>316864.497</v>
+        <v>316.864497</v>
       </c>
       <c r="H257">
         <v>60.40915664442111</v>
@@ -13217,7 +13217,7 @@
         <v>0.1205176624221247</v>
       </c>
       <c r="K257">
-        <v>0.0329645838738725</v>
+        <v>1.001365164336625</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="D258">
-        <v>3875</v>
+        <v>3.875</v>
       </c>
       <c r="E258">
         <v>715</v>
@@ -13267,7 +13267,7 @@
         <v>19.24424341723511</v>
       </c>
       <c r="K258">
-        <v>0.0329645838738725</v>
+        <v>0.1277377625112559</v>
       </c>
       <c r="L258">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="D259">
-        <v>392</v>
+        <v>0.392</v>
       </c>
       <c r="E259">
         <v>412</v>
@@ -13317,7 +13317,7 @@
         <v>36.66082782901238</v>
       </c>
       <c r="K259">
-        <v>0.03296458387387251</v>
+        <v>0.01292211687855802</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="D260">
-        <v>8172</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="E260">
         <v>255</v>
@@ -13355,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <v>57906.298</v>
+        <v>57.906298</v>
       </c>
       <c r="H260">
         <v>60.52388889374384</v>
@@ -13367,7 +13367,7 @@
         <v>0.5091359431483643</v>
       </c>
       <c r="K260">
-        <v>0.0329645838738725</v>
+        <v>0.2693865794172861</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="D261">
-        <v>30169</v>
+        <v>30.169</v>
       </c>
       <c r="E261">
         <v>679</v>
@@ -13405,7 +13405,7 @@
         <v>2</v>
       </c>
       <c r="G261">
-        <v>452005.755</v>
+        <v>452.005755</v>
       </c>
       <c r="H261">
         <v>60.54907238965212</v>
@@ -13417,7 +13417,7 @@
         <v>0.2382671842178361</v>
       </c>
       <c r="K261">
-        <v>0.0329645838738725</v>
+        <v>0.9945085308908594</v>
       </c>
       <c r="L261">
         <v>25.652</v>
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="D262">
-        <v>2915</v>
+        <v>2.915</v>
       </c>
       <c r="E262">
         <v>58</v>
@@ -13467,7 +13467,7 @@
         <v>16.31553178695842</v>
       </c>
       <c r="K262">
-        <v>0.0329645838738725</v>
+        <v>0.09609176199233833</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="D263">
-        <v>521</v>
+        <v>0.521</v>
       </c>
       <c r="E263">
         <v>9</v>
@@ -13517,7 +13517,7 @@
         <v>23.30344296103162</v>
       </c>
       <c r="K263">
-        <v>0.0329645838738725</v>
+        <v>0.01717454819828758</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="D264">
-        <v>1687</v>
+        <v>1.687</v>
       </c>
       <c r="E264">
         <v>556</v>
@@ -13567,7 +13567,7 @@
         <v>22.56199623222664</v>
       </c>
       <c r="K264">
-        <v>0.0329645838738725</v>
+        <v>0.05561125299522291</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="D265">
-        <v>2260</v>
+        <v>2.26</v>
       </c>
       <c r="E265">
         <v>599</v>
@@ -13617,7 +13617,7 @@
         <v>37.99041891739736</v>
       </c>
       <c r="K265">
-        <v>0.0329645838738725</v>
+        <v>0.07449995955495184</v>
       </c>
       <c r="L265">
         <v>17.626</v>
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="D266">
-        <v>740</v>
+        <v>0.74</v>
       </c>
       <c r="E266">
         <v>228</v>
@@ -13667,7 +13667,7 @@
         <v>32.57139375516374</v>
       </c>
       <c r="K266">
-        <v>0.03296458387387251</v>
+        <v>0.02439379206666565</v>
       </c>
       <c r="L266">
         <v>0</v>
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="D267">
-        <v>1281</v>
+        <v>1.281</v>
       </c>
       <c r="E267">
         <v>259</v>
@@ -13717,7 +13717,7 @@
         <v>23.1963342938954</v>
       </c>
       <c r="K267">
-        <v>0.0329645838738725</v>
+        <v>0.04222763194243067</v>
       </c>
       <c r="L267">
         <v>4.203</v>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="D268">
-        <v>3894</v>
+        <v>3.894</v>
       </c>
       <c r="E268">
         <v>1001</v>
@@ -13755,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="G268">
-        <v>44040.325</v>
+        <v>44.040325</v>
       </c>
       <c r="H268">
         <v>61.21882775635282</v>
@@ -13767,7 +13767,7 @@
         <v>0.03180891333665745</v>
       </c>
       <c r="K268">
-        <v>0.0329645838738725</v>
+        <v>0.1283640896048595</v>
       </c>
       <c r="L268">
         <v>0</v>
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="D269">
-        <v>2550</v>
+        <v>2.55</v>
       </c>
       <c r="E269">
         <v>833</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="G269">
-        <v>31742.579</v>
+        <v>31.742579</v>
       </c>
       <c r="H269">
         <v>61.08859398155822</v>
@@ -13817,7 +13817,7 @@
         <v>0.3846297408806061</v>
       </c>
       <c r="K269">
-        <v>0.0329645838738725</v>
+        <v>0.08405968887837487</v>
       </c>
       <c r="L269">
         <v>25.193</v>
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D270">
-        <v>12496</v>
+        <v>12.496</v>
       </c>
       <c r="E270">
         <v>1258</v>
@@ -13855,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="G270">
-        <v>211607.725</v>
+        <v>211.607725</v>
       </c>
       <c r="H270">
         <v>61.18556165410986</v>
@@ -13867,7 +13867,7 @@
         <v>15.86728047370329</v>
       </c>
       <c r="K270">
-        <v>0.0329645838738725</v>
+        <v>0.4119254400879108</v>
       </c>
       <c r="L270">
         <v>246.632</v>
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="D271">
-        <v>1836</v>
+        <v>1.836</v>
       </c>
       <c r="E271">
         <v>1468</v>
@@ -13917,7 +13917,7 @@
         <v>36.60803018208116</v>
       </c>
       <c r="K271">
-        <v>0.0329645838738725</v>
+        <v>0.06052297599242991</v>
       </c>
       <c r="L271">
         <v>264.919</v>
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="D272">
-        <v>2188</v>
+        <v>2.188</v>
       </c>
       <c r="E272">
         <v>1343</v>
@@ -13967,7 +13967,7 @@
         <v>25.18882477954008</v>
       </c>
       <c r="K272">
-        <v>0.0329645838738725</v>
+        <v>0.07212650951603303</v>
       </c>
       <c r="L272">
         <v>91.89100000000001</v>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="D273">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="E273">
         <v>977</v>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="G273">
-        <v>72660.01199999999</v>
+        <v>72.66001199999999</v>
       </c>
       <c r="H273">
         <v>61.23638613500446</v>
@@ -14017,7 +14017,7 @@
         <v>9.980814514381082</v>
       </c>
       <c r="K273">
-        <v>0.0329645838738725</v>
+        <v>0.1718443757344973</v>
       </c>
       <c r="L273">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="D274">
-        <v>5432</v>
+        <v>5.432</v>
       </c>
       <c r="E274">
         <v>2706</v>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="G274">
-        <v>29377.4</v>
+        <v>29.3774</v>
       </c>
       <c r="H274">
         <v>61.40312219053969</v>
@@ -14067,7 +14067,7 @@
         <v>0.6359017291155107</v>
       </c>
       <c r="K274">
-        <v>0.0329645838738725</v>
+        <v>0.1790636196028754</v>
       </c>
       <c r="L274">
         <v>142.297</v>
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="D275">
-        <v>2930</v>
+        <v>2.93</v>
       </c>
       <c r="E275">
         <v>326</v>
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="G275">
-        <v>60224.57699999999</v>
+        <v>60.22457699999999</v>
       </c>
       <c r="H275">
         <v>61.34848891573768</v>
@@ -14117,7 +14117,7 @@
         <v>0.5802098945853872</v>
       </c>
       <c r="K275">
-        <v>0.0329645838738725</v>
+        <v>0.09658623075044644</v>
       </c>
       <c r="L275">
         <v>3.718</v>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="D276">
-        <v>2924</v>
+        <v>2.924</v>
       </c>
       <c r="E276">
         <v>417</v>
@@ -14167,7 +14167,7 @@
         <v>18.0095568381185</v>
       </c>
       <c r="K276">
-        <v>0.0329645838738725</v>
+        <v>0.09638844324720318</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="D277">
-        <v>22662</v>
+        <v>22.662</v>
       </c>
       <c r="E277">
         <v>2208</v>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="G277">
-        <v>367327.818</v>
+        <v>367.327818</v>
       </c>
       <c r="H277">
         <v>61.45026609440642</v>
@@ -14217,7 +14217,7 @@
         <v>0.4461346204818623</v>
       </c>
       <c r="K277">
-        <v>0.0329645838738725</v>
+        <v>0.7470433997496986</v>
       </c>
       <c r="L277">
         <v>199.489</v>
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="D278">
-        <v>3361</v>
+        <v>3.361</v>
       </c>
       <c r="E278">
         <v>833</v>
@@ -14267,7 +14267,7 @@
         <v>20.71258504069355</v>
       </c>
       <c r="K278">
-        <v>0.0329645838738725</v>
+        <v>0.1107939664000855</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="D279">
-        <v>9655</v>
+        <v>9.654999999999999</v>
       </c>
       <c r="E279">
         <v>753</v>
@@ -14305,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="G279">
-        <v>146908.764</v>
+        <v>146.908764</v>
       </c>
       <c r="H279">
         <v>61.90679478972392</v>
@@ -14317,7 +14317,7 @@
         <v>0.519588363655299</v>
       </c>
       <c r="K279">
-        <v>0.0329645838738725</v>
+        <v>0.3182730573022389</v>
       </c>
       <c r="L279">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="D280">
-        <v>5936</v>
+        <v>5.936</v>
       </c>
       <c r="E280">
         <v>1031</v>
@@ -14355,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="G280">
-        <v>87140.12</v>
+        <v>87.14012</v>
       </c>
       <c r="H280">
         <v>61.77729170725097</v>
@@ -14367,7 +14367,7 @@
         <v>0.2017386556658099</v>
       </c>
       <c r="K280">
-        <v>0.0329645838738725</v>
+        <v>0.1956777698753072</v>
       </c>
       <c r="L280">
         <v>33.133</v>
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="D281">
-        <v>7311</v>
+        <v>7.311</v>
       </c>
       <c r="E281">
         <v>1382</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="G281">
-        <v>146500.215</v>
+        <v>146.500215</v>
       </c>
       <c r="H281">
         <v>61.90360274519857</v>
@@ -14417,7 +14417,7 @@
         <v>0.03301993029075996</v>
       </c>
       <c r="K281">
-        <v>0.03296458387387251</v>
+        <v>0.2410040727018818</v>
       </c>
       <c r="L281">
         <v>341.705</v>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="D282">
-        <v>216518</v>
+        <v>216.518</v>
       </c>
       <c r="E282">
         <v>529</v>
@@ -14455,7 +14455,7 @@
         <v>9</v>
       </c>
       <c r="G282">
-        <v>3935876.625</v>
+        <v>3935.876625</v>
       </c>
       <c r="H282">
         <v>63.42810558776971</v>
@@ -14467,7 +14467,7 @@
         <v>0.2315682892224986</v>
       </c>
       <c r="K282">
-        <v>0.1192829925125561</v>
+        <v>25.82691497283362</v>
       </c>
       <c r="L282">
         <v>1278.554</v>
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="D283">
-        <v>24064</v>
+        <v>24.064</v>
       </c>
       <c r="E283">
         <v>2122</v>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="G283">
-        <v>439011.763</v>
+        <v>439.011763</v>
       </c>
       <c r="H283">
         <v>64.01291389342892</v>
@@ -14517,7 +14517,7 @@
         <v>0.3563970951281953</v>
       </c>
       <c r="K283">
-        <v>0.1192829925125561</v>
+        <v>2.87042593182215</v>
       </c>
       <c r="L283">
         <v>26.292</v>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="D284">
-        <v>15154</v>
+        <v>15.154</v>
       </c>
       <c r="E284">
         <v>2132</v>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="G284">
-        <v>323104.26</v>
+        <v>323.10426</v>
       </c>
       <c r="H284">
         <v>64.46603320637341</v>
@@ -14567,7 +14567,7 @@
         <v>0.3812735850844319</v>
       </c>
       <c r="K284">
-        <v>0.1192829925125561</v>
+        <v>1.807614468535275</v>
       </c>
       <c r="L284">
         <v>24.688</v>
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="D285">
-        <v>5655</v>
+        <v>5.655</v>
       </c>
       <c r="E285">
         <v>241</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="G285">
-        <v>90037.515</v>
+        <v>90.037515</v>
       </c>
       <c r="H285">
         <v>63.73004444161258</v>
@@ -14617,7 +14617,7 @@
         <v>0.2316106446318464</v>
       </c>
       <c r="K285">
-        <v>0.1192829925125561</v>
+        <v>0.6745453226585048</v>
       </c>
       <c r="L285">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="D286">
-        <v>891</v>
+        <v>0.891</v>
       </c>
       <c r="E286">
         <v>387</v>
@@ -14667,7 +14667,7 @@
         <v>40.16124405499531</v>
       </c>
       <c r="K286">
-        <v>0.1192829925125561</v>
+        <v>0.1062811463286875</v>
       </c>
       <c r="L286">
         <v>0</v>
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="D287">
-        <v>7408</v>
+        <v>7.408</v>
       </c>
       <c r="E287">
         <v>2274</v>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="G287">
-        <v>250916.345</v>
+        <v>250.916345</v>
       </c>
       <c r="H287">
         <v>62.59494170012958</v>
@@ -14717,7 +14717,7 @@
         <v>0.1438713589994311</v>
       </c>
       <c r="K287">
-        <v>0.1192829925125561</v>
+        <v>0.8836484085330156</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="D288">
-        <v>2513</v>
+        <v>2.513</v>
       </c>
       <c r="E288">
         <v>948</v>
@@ -14767,7 +14767,7 @@
         <v>28.19494477479097</v>
       </c>
       <c r="K288">
-        <v>0.1192829925125561</v>
+        <v>0.2997581601840534</v>
       </c>
       <c r="L288">
         <v>0</v>
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="D289">
-        <v>5681</v>
+        <v>5.681</v>
       </c>
       <c r="E289">
         <v>1957</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="G289">
-        <v>165133.904</v>
+        <v>165.133904</v>
       </c>
       <c r="H289">
         <v>62.57556166541731</v>
@@ -14817,7 +14817,7 @@
         <v>0.3432629468001519</v>
       </c>
       <c r="K289">
-        <v>0.1192829925125561</v>
+        <v>0.6776466804638311</v>
       </c>
       <c r="L289">
         <v>0</v>
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="D290">
-        <v>2048</v>
+        <v>2.048</v>
       </c>
       <c r="E290">
         <v>1210</v>
@@ -14867,7 +14867,7 @@
         <v>30.12950947722824</v>
       </c>
       <c r="K290">
-        <v>0.1192829925125561</v>
+        <v>0.2442915686657149</v>
       </c>
       <c r="L290">
         <v>0</v>
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="D291">
-        <v>6141</v>
+        <v>6.141</v>
       </c>
       <c r="E291">
         <v>1860</v>
@@ -14905,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="G291">
-        <v>110201.7</v>
+        <v>110.2017</v>
       </c>
       <c r="H291">
         <v>63.03641112516753</v>
@@ -14917,7 +14917,7 @@
         <v>1.296233999884783</v>
       </c>
       <c r="K291">
-        <v>0.1192829925125561</v>
+        <v>0.7325168570196069</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="D292">
-        <v>17812</v>
+        <v>17.812</v>
       </c>
       <c r="E292">
         <v>694</v>
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
       <c r="G292">
-        <v>180916.049</v>
+        <v>180.916049</v>
       </c>
       <c r="H292">
         <v>63.28799721232496</v>
@@ -14967,7 +14967,7 @@
         <v>0.3794304793144223</v>
       </c>
       <c r="K292">
-        <v>0.1192829925125561</v>
+        <v>2.124668662633649</v>
       </c>
       <c r="L292">
         <v>24.917</v>
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="D293">
-        <v>8521</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="E293">
         <v>224</v>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="G293">
-        <v>20746.525</v>
+        <v>20.746525</v>
       </c>
       <c r="H293">
         <v>63.32674169860416</v>
@@ -15017,7 +15017,7 @@
         <v>5.542966561887937</v>
       </c>
       <c r="K293">
-        <v>0.1192829925125561</v>
+        <v>1.016410379199491</v>
       </c>
       <c r="L293">
         <v>0</v>
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="D294">
-        <v>15023</v>
+        <v>15.023</v>
       </c>
       <c r="E294">
         <v>168</v>
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="G294">
-        <v>184208.481</v>
+        <v>184.208481</v>
       </c>
       <c r="H294">
         <v>63.41056392840753</v>
@@ -15067,7 +15067,7 @@
         <v>2.213948002214585</v>
       </c>
       <c r="K294">
-        <v>0.1192829925125561</v>
+        <v>1.79198839651613</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="D295">
-        <v>4233</v>
+        <v>4.233</v>
       </c>
       <c r="E295">
         <v>1235</v>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="G295">
-        <v>56877.119</v>
+        <v>56.877119</v>
       </c>
       <c r="H295">
         <v>63.21769722091032</v>
@@ -15117,7 +15117,7 @@
         <v>0.1853509962461325</v>
       </c>
       <c r="K295">
-        <v>0.1192829925125561</v>
+        <v>0.5049249073056499</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="D296">
-        <v>786</v>
+        <v>0.786</v>
       </c>
       <c r="E296">
         <v>1329</v>
@@ -15167,7 +15167,7 @@
         <v>36.32222499731586</v>
       </c>
       <c r="K296">
-        <v>0.1192829925125561</v>
+        <v>0.09375643211486909</v>
       </c>
       <c r="L296">
         <v>12.411</v>
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="D297">
-        <v>2472</v>
+        <v>2.472</v>
       </c>
       <c r="E297">
         <v>1274</v>
@@ -15217,7 +15217,7 @@
         <v>41.39691448249086</v>
       </c>
       <c r="K297">
-        <v>0.1192829925125561</v>
+        <v>0.2948675574910387</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="D298">
-        <v>24927</v>
+        <v>24.927</v>
       </c>
       <c r="E298">
         <v>938</v>
@@ -15255,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="G298">
-        <v>399170.426</v>
+        <v>399.170426</v>
       </c>
       <c r="H298">
         <v>63.4683816531205</v>
@@ -15267,7 +15267,7 @@
         <v>0.3115826552877649</v>
       </c>
       <c r="K298">
-        <v>0.1192829925125561</v>
+        <v>2.973367154360486</v>
       </c>
       <c r="L298">
         <v>269.923</v>
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="D299">
-        <v>2661</v>
+        <v>2.661</v>
       </c>
       <c r="E299">
         <v>76</v>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="G299">
-        <v>45332.595</v>
+        <v>45.332595</v>
       </c>
       <c r="H299">
         <v>63.58770552514082</v>
@@ -15317,7 +15317,7 @@
         <v>0.1071880455514616</v>
       </c>
       <c r="K299">
-        <v>0.1192829925125561</v>
+        <v>0.3174120430759118</v>
       </c>
       <c r="L299">
         <v>78.55200000000001</v>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="D300">
-        <v>20732</v>
+        <v>20.732</v>
       </c>
       <c r="E300">
         <v>646</v>
@@ -15355,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="G300">
-        <v>297650.443</v>
+        <v>297.6504430000001</v>
       </c>
       <c r="H300">
         <v>63.7460305573569</v>
@@ -15367,7 +15367,7 @@
         <v>0.3860790644001836</v>
       </c>
       <c r="K300">
-        <v>0.1192829925125561</v>
+        <v>2.472975000770313</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="D301">
-        <v>15412</v>
+        <v>15.412</v>
       </c>
       <c r="E301">
         <v>1548</v>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="G301">
-        <v>190135.72</v>
+        <v>190.13572</v>
       </c>
       <c r="H301">
         <v>63.79404723848074</v>
@@ -15417,7 +15417,7 @@
         <v>0.3610894756160769</v>
       </c>
       <c r="K301">
-        <v>0.1192829925125561</v>
+        <v>1.838389480603514</v>
       </c>
       <c r="L301">
         <v>47.166</v>
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="D302">
-        <v>2138</v>
+        <v>2.138</v>
       </c>
       <c r="E302">
         <v>2343</v>
@@ -15467,7 +15467,7 @@
         <v>24.54082546958647</v>
       </c>
       <c r="K302">
-        <v>0.1192829925125561</v>
+        <v>0.2550270379918449</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="D303">
-        <v>1316</v>
+        <v>1.316</v>
       </c>
       <c r="E303">
         <v>2962</v>
@@ -15517,7 +15517,7 @@
         <v>61.31517863667393</v>
       </c>
       <c r="K303">
-        <v>0.1192829925125561</v>
+        <v>0.1569764181465238</v>
       </c>
       <c r="L303">
         <v>2.28</v>
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="D304">
-        <v>443</v>
+        <v>0.443</v>
       </c>
       <c r="E304">
         <v>1585</v>
@@ -15567,7 +15567,7 @@
         <v>75.67484654329289</v>
       </c>
       <c r="K304">
-        <v>0.1192829925125561</v>
+        <v>0.05284236568306235</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="D305">
-        <v>811</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E305">
         <v>1417</v>
@@ -15617,7 +15617,7 @@
         <v>65.2200782971381</v>
       </c>
       <c r="K305">
-        <v>0.1192829925125561</v>
+        <v>0.096738506927683</v>
       </c>
       <c r="L305">
         <v>14.363</v>
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="D306">
-        <v>2314</v>
+        <v>2.314</v>
       </c>
       <c r="E306">
         <v>1136</v>
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="G306">
-        <v>81193.16099999999</v>
+        <v>81.19316099999999</v>
       </c>
       <c r="H306">
         <v>64.46397199201867</v>
@@ -15667,7 +15667,7 @@
         <v>0.18229686884876</v>
       </c>
       <c r="K306">
-        <v>0.1192829925125561</v>
+        <v>0.2760208446740548</v>
       </c>
       <c r="L306">
         <v>21.962</v>
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="D307">
-        <v>1235</v>
+        <v>1.235</v>
       </c>
       <c r="E307">
         <v>755</v>
@@ -15717,7 +15717,7 @@
         <v>18.165499124931</v>
       </c>
       <c r="K307">
-        <v>0.1192829925125561</v>
+        <v>0.1473144957530068</v>
       </c>
       <c r="L307">
         <v>0</v>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="D308">
-        <v>3946</v>
+        <v>3.946</v>
       </c>
       <c r="E308">
         <v>730</v>
@@ -15767,7 +15767,7 @@
         <v>17.90832820202273</v>
       </c>
       <c r="K308">
-        <v>0.1192829925125561</v>
+        <v>0.4706906884545463</v>
       </c>
       <c r="L308">
         <v>3.064</v>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="D309">
-        <v>1121</v>
+        <v>1.121</v>
       </c>
       <c r="E309">
         <v>459</v>
@@ -15817,7 +15817,7 @@
         <v>28.83796633385532</v>
       </c>
       <c r="K309">
-        <v>0.1192829925125561</v>
+        <v>0.1337162346065754</v>
       </c>
       <c r="L309">
         <v>12.44</v>
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="D310">
-        <v>593</v>
+        <v>0.593</v>
       </c>
       <c r="E310">
         <v>110</v>
@@ -15867,7 +15867,7 @@
         <v>25.71915897389005</v>
       </c>
       <c r="K310">
-        <v>0.1192829925125561</v>
+        <v>0.07073481455994576</v>
       </c>
       <c r="L310">
         <v>14.48</v>
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="D311">
-        <v>7031</v>
+        <v>7.031</v>
       </c>
       <c r="E311">
         <v>366</v>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="G311">
-        <v>63629.796</v>
+        <v>63.629796</v>
       </c>
       <c r="H311">
         <v>63.8760990782287</v>
@@ -15917,7 +15917,7 @@
         <v>0.5078991917759708</v>
       </c>
       <c r="K311">
-        <v>0.1192829925125561</v>
+        <v>0.8386787203557819</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="D312">
-        <v>10042</v>
+        <v>10.042</v>
       </c>
       <c r="E312">
         <v>1096</v>
@@ -15955,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="G312">
-        <v>87868.63</v>
+        <v>87.86863000000001</v>
       </c>
       <c r="H312">
         <v>63.5832206932099</v>
@@ -15967,7 +15967,7 @@
         <v>0.1713157195221743</v>
       </c>
       <c r="K312">
-        <v>0.1192829925125561</v>
+        <v>1.197839810811088</v>
       </c>
       <c r="L312">
         <v>0</v>
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="D313">
-        <v>6134</v>
+        <v>6.134</v>
       </c>
       <c r="E313">
         <v>1025</v>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="G313">
-        <v>80149.236</v>
+        <v>80.149236</v>
       </c>
       <c r="H313">
         <v>63.29102021841953</v>
@@ -16017,7 +16017,7 @@
         <v>0.001737111854873408</v>
       </c>
       <c r="K313">
-        <v>0.1192829925125561</v>
+        <v>0.7316818760720192</v>
       </c>
       <c r="L313">
         <v>20.967</v>
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="D314">
-        <v>5414</v>
+        <v>5.414</v>
       </c>
       <c r="E314">
         <v>756</v>
@@ -16055,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="G314">
-        <v>103181.805</v>
+        <v>103.181805</v>
       </c>
       <c r="H314">
         <v>63.60155557592506</v>
@@ -16067,7 +16067,7 @@
         <v>0.1511213078816971</v>
       </c>
       <c r="K314">
-        <v>0.1192829925125561</v>
+        <v>0.6457981214629787</v>
       </c>
       <c r="L314">
         <v>77.464</v>
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="D315">
-        <v>10627</v>
+        <v>10.627</v>
       </c>
       <c r="E315">
         <v>457</v>
@@ -16105,7 +16105,7 @@
         <v>2</v>
       </c>
       <c r="G315">
-        <v>199070.67</v>
+        <v>199.07067</v>
       </c>
       <c r="H315">
         <v>63.76523985645353</v>
@@ -16117,7 +16117,7 @@
         <v>0.1222331099894117</v>
       </c>
       <c r="K315">
-        <v>0.1192829925125561</v>
+        <v>1.267620361430934</v>
       </c>
       <c r="L315">
         <v>20.814</v>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="D316">
-        <v>4342</v>
+        <v>4.342</v>
       </c>
       <c r="E316">
         <v>1329</v>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="G316">
-        <v>69360.901</v>
+        <v>69.360901</v>
       </c>
       <c r="H316">
         <v>63.96195833250574</v>
@@ -16167,7 +16167,7 @@
         <v>0.1662148061744048</v>
       </c>
       <c r="K316">
-        <v>0.1192829925125561</v>
+        <v>0.5179267534895186</v>
       </c>
       <c r="L316">
         <v>34.196</v>
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="D317">
-        <v>18798</v>
+        <v>18.798</v>
       </c>
       <c r="E317">
         <v>1906</v>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="G317">
-        <v>387377.827</v>
+        <v>387.377827</v>
       </c>
       <c r="H317">
         <v>63.29962050486456</v>
@@ -16217,7 +16217,7 @@
         <v>0.290013456336721</v>
       </c>
       <c r="K317">
-        <v>0.1192829925125561</v>
+        <v>2.242281693251029</v>
       </c>
       <c r="L317">
         <v>43.884</v>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="D318">
-        <v>9921</v>
+        <v>9.920999999999999</v>
       </c>
       <c r="E318">
         <v>1346</v>
@@ -16255,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="G318">
-        <v>158852.041</v>
+        <v>158.852041</v>
       </c>
       <c r="H318">
         <v>64.86355304306909</v>
@@ -16267,7 +16267,7 @@
         <v>0.1672469212363001</v>
       </c>
       <c r="K318">
-        <v>0.1192829925125561</v>
+        <v>1.183406568717069</v>
       </c>
       <c r="L318">
         <v>16.21</v>
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="D319">
-        <v>1937</v>
+        <v>1.937</v>
       </c>
       <c r="E319">
         <v>632</v>
@@ -16317,7 +16317,7 @@
         <v>26.01845859168469</v>
       </c>
       <c r="K319">
-        <v>0.1192829925125561</v>
+        <v>0.2310511564968211</v>
       </c>
       <c r="L319">
         <v>0</v>
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="D320">
-        <v>79421</v>
+        <v>79.42100000000001</v>
       </c>
       <c r="E320">
         <v>2521</v>
@@ -16355,7 +16355,7 @@
         <v>3</v>
       </c>
       <c r="G320">
-        <v>1829938.836</v>
+        <v>1829.938836</v>
       </c>
       <c r="H320">
         <v>69.64960835546229</v>
@@ -16367,7 +16367,7 @@
         <v>0.4024938524881264</v>
       </c>
       <c r="K320">
-        <v>0.09595903307738782</v>
+        <v>7.621162366039218</v>
       </c>
       <c r="L320">
         <v>1184.871</v>
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="D321">
-        <v>25167</v>
+        <v>25.167</v>
       </c>
       <c r="E321">
         <v>445</v>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="G321">
-        <v>490756.9380000001</v>
+        <v>490.7569380000001</v>
       </c>
       <c r="H321">
         <v>68.79877499712251</v>
@@ -16417,7 +16417,7 @@
         <v>0.2574760946583382</v>
       </c>
       <c r="K321">
-        <v>0.09595903307738782</v>
+        <v>2.415000985458619</v>
       </c>
       <c r="L321">
         <v>174.436</v>
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="D322">
-        <v>2852</v>
+        <v>2.852</v>
       </c>
       <c r="E322">
         <v>513</v>
@@ -16467,7 +16467,7 @@
         <v>15.31025715204203</v>
       </c>
       <c r="K322">
-        <v>0.09595903307738782</v>
+        <v>0.27367516233671</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="D323">
-        <v>4209</v>
+        <v>4.209</v>
       </c>
       <c r="E323">
         <v>814</v>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="G323">
-        <v>104029.451</v>
+        <v>104.029451</v>
       </c>
       <c r="H323">
         <v>68.58351124137405</v>
@@ -16517,7 +16517,7 @@
         <v>0.05023824530270579</v>
       </c>
       <c r="K323">
-        <v>0.09595903307738782</v>
+        <v>0.4038915702227253</v>
       </c>
       <c r="L323">
         <v>0</v>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="D324">
-        <v>1301</v>
+        <v>1.301</v>
       </c>
       <c r="E324">
         <v>241</v>
@@ -16567,7 +16567,7 @@
         <v>25.51326961322322</v>
       </c>
       <c r="K324">
-        <v>0.09595903307738782</v>
+        <v>0.1248427020336815</v>
       </c>
       <c r="L324">
         <v>0</v>
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="D325">
-        <v>1062</v>
+        <v>1.062</v>
       </c>
       <c r="E325">
         <v>313</v>
@@ -16617,7 +16617,7 @@
         <v>23.65903416841522</v>
       </c>
       <c r="K325">
-        <v>0.0959590330773878</v>
+        <v>0.1019084931281859</v>
       </c>
       <c r="L325">
         <v>0</v>
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="D326">
-        <v>985</v>
+        <v>0.985</v>
       </c>
       <c r="E326">
         <v>302</v>
@@ -16667,7 +16667,7 @@
         <v>14.13723784630379</v>
       </c>
       <c r="K326">
-        <v>0.09595903307738782</v>
+        <v>0.09451964758122698</v>
       </c>
       <c r="L326">
         <v>10.128</v>
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="D327">
-        <v>3961</v>
+        <v>3.961</v>
       </c>
       <c r="E327">
         <v>2704</v>
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="G327">
-        <v>70656.55399999999</v>
+        <v>70.65655399999999</v>
       </c>
       <c r="H327">
         <v>68.86057775091109</v>
@@ -16717,7 +16717,7 @@
         <v>0.2433486954181132</v>
       </c>
       <c r="K327">
-        <v>0.09595903307738782</v>
+        <v>0.3800937300195331</v>
       </c>
       <c r="L327">
         <v>7.826</v>
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="D328">
-        <v>2116</v>
+        <v>2.116</v>
       </c>
       <c r="E328">
         <v>458</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="G328">
-        <v>54437.784</v>
+        <v>54.437784</v>
       </c>
       <c r="H328">
         <v>68.87668607648816</v>
@@ -16767,7 +16767,7 @@
         <v>0.2142080828141346</v>
       </c>
       <c r="K328">
-        <v>0.09595903307738782</v>
+        <v>0.2030493139917526</v>
       </c>
       <c r="L328">
         <v>0</v>
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="D329">
-        <v>6794</v>
+        <v>6.794</v>
       </c>
       <c r="E329">
         <v>3324</v>
@@ -16805,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="G329">
-        <v>162338.317</v>
+        <v>162.338317</v>
       </c>
       <c r="H329">
         <v>69.1238888968202</v>
@@ -16817,7 +16817,7 @@
         <v>7.972163643942681</v>
       </c>
       <c r="K329">
-        <v>0.09595903307738782</v>
+        <v>0.6519456707277728</v>
       </c>
       <c r="L329">
         <v>16.898</v>
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="D330">
-        <v>3533</v>
+        <v>3.533</v>
       </c>
       <c r="E330">
         <v>363</v>
@@ -16867,7 +16867,7 @@
         <v>11.87210681331942</v>
       </c>
       <c r="K330">
-        <v>0.09595903307738782</v>
+        <v>0.3390232638624111</v>
       </c>
       <c r="L330">
         <v>10.923</v>
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="D331">
-        <v>1069</v>
+        <v>1.069</v>
       </c>
       <c r="E331">
         <v>289</v>
@@ -16917,7 +16917,7 @@
         <v>19.15683410630454</v>
       </c>
       <c r="K331">
-        <v>0.09595903307738782</v>
+        <v>0.1025802063597276</v>
       </c>
       <c r="L331">
         <v>8.315</v>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="D332">
-        <v>14948</v>
+        <v>14.948</v>
       </c>
       <c r="E332">
         <v>1946</v>
@@ -16955,7 +16955,7 @@
         <v>1</v>
       </c>
       <c r="G332">
-        <v>312229.6820000001</v>
+        <v>312.2296820000001</v>
       </c>
       <c r="H332">
         <v>69.23107811783034</v>
@@ -16967,7 +16967,7 @@
         <v>0.3987905378168969</v>
       </c>
       <c r="K332">
-        <v>0.09595903307738782</v>
+        <v>1.434395626440793</v>
       </c>
       <c r="L332">
         <v>154.744</v>
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="D333">
-        <v>5595</v>
+        <v>5.595</v>
       </c>
       <c r="E333">
         <v>1497</v>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="G333">
-        <v>80753.97899999999</v>
+        <v>80.75397899999999</v>
       </c>
       <c r="H333">
         <v>69.24023333191307</v>
@@ -17017,7 +17017,7 @@
         <v>0.06100196307170942</v>
       </c>
       <c r="K333">
-        <v>0.09595903307738783</v>
+        <v>0.5368907900679848</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="D334">
-        <v>2223</v>
+        <v>2.223</v>
       </c>
       <c r="E334">
         <v>1092</v>
@@ -17067,7 +17067,7 @@
         <v>41.71369811573956</v>
       </c>
       <c r="K334">
-        <v>0.09595903307738783</v>
+        <v>0.2133169305310331</v>
       </c>
       <c r="L334">
         <v>14.714</v>
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="D335">
-        <v>2734</v>
+        <v>2.734</v>
       </c>
       <c r="E335">
         <v>813</v>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="G335">
-        <v>41538.223</v>
+        <v>41.538223</v>
       </c>
       <c r="H335">
         <v>69.57452915278894</v>
@@ -17117,7 +17117,7 @@
         <v>0.4773879244471744</v>
       </c>
       <c r="K335">
-        <v>0.09595903307738782</v>
+        <v>0.2623519964335783</v>
       </c>
       <c r="L335">
         <v>18.449</v>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="D336">
-        <v>1829</v>
+        <v>1.829</v>
       </c>
       <c r="E336">
         <v>1543</v>
@@ -17167,7 +17167,7 @@
         <v>29.11539854806205</v>
       </c>
       <c r="K336">
-        <v>0.09595903307738783</v>
+        <v>0.1755090714985423</v>
       </c>
       <c r="L336">
         <v>60.955</v>
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="D337">
-        <v>1955</v>
+        <v>1.955</v>
       </c>
       <c r="E337">
         <v>991</v>
@@ -17217,7 +17217,7 @@
         <v>13.12936648250548</v>
       </c>
       <c r="K337">
-        <v>0.09595903307738782</v>
+        <v>0.1875999096662932</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="D338">
-        <v>2784</v>
+        <v>2.784</v>
       </c>
       <c r="E338">
         <v>474</v>
@@ -17255,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="G338">
-        <v>37412.674</v>
+        <v>37.412674</v>
       </c>
       <c r="H338">
         <v>70.03378607089678</v>
@@ -17267,7 +17267,7 @@
         <v>0.08644918843689835</v>
       </c>
       <c r="K338">
-        <v>0.09595903307738782</v>
+        <v>0.2671499480874477</v>
       </c>
       <c r="L338">
         <v>18.994</v>
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="D339">
-        <v>4810</v>
+        <v>4.81</v>
       </c>
       <c r="E339">
         <v>3438</v>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="G339">
-        <v>127460.805</v>
+        <v>127.460805</v>
       </c>
       <c r="H339">
         <v>69.76824231868639</v>
@@ -17317,7 +17317,7 @@
         <v>0.8549241701936063</v>
       </c>
       <c r="K339">
-        <v>0.09595903307738783</v>
+        <v>0.4615629491022353</v>
       </c>
       <c r="L339">
         <v>10.439</v>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="D340">
-        <v>1131</v>
+        <v>1.131</v>
       </c>
       <c r="E340">
         <v>2110</v>
@@ -17367,7 +17367,7 @@
         <v>42.27857206048732</v>
       </c>
       <c r="K340">
-        <v>0.09595903307738782</v>
+        <v>0.1085296664105256</v>
       </c>
       <c r="L340">
         <v>12.189</v>
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="D341">
-        <v>21877</v>
+        <v>21.877</v>
       </c>
       <c r="E341">
         <v>3849</v>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="G341">
-        <v>415350.461</v>
+        <v>415.350461</v>
       </c>
       <c r="H341">
         <v>69.97674996689655</v>
@@ -17417,7 +17417,7 @@
         <v>1.482913228076631</v>
       </c>
       <c r="K341">
-        <v>0.0934276804989206</v>
+        <v>2.043917366274886</v>
       </c>
       <c r="L341">
         <v>223.353</v>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="D342">
-        <v>11324</v>
+        <v>11.324</v>
       </c>
       <c r="E342">
         <v>2693</v>
@@ -17455,7 +17455,7 @@
         <v>1</v>
       </c>
       <c r="G342">
-        <v>196416.122</v>
+        <v>196.416122</v>
       </c>
       <c r="H342">
         <v>70.6625443588601</v>
@@ -17467,7 +17467,7 @@
         <v>0.12581877479988</v>
       </c>
       <c r="K342">
-        <v>0.0934276804989206</v>
+        <v>1.057975053969777</v>
       </c>
       <c r="L342">
         <v>109.594</v>
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="D343">
-        <v>9963</v>
+        <v>9.962999999999999</v>
       </c>
       <c r="E343">
         <v>3971</v>
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="G343">
-        <v>215872.898</v>
+        <v>215.872898</v>
       </c>
       <c r="H343">
         <v>69.72860836832434</v>
@@ -17517,7 +17517,7 @@
         <v>0.1807070296759267</v>
       </c>
       <c r="K343">
-        <v>0.09342768049892058</v>
+        <v>0.9308199808107457</v>
       </c>
       <c r="L343">
         <v>11.341</v>
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="D344">
-        <v>5777</v>
+        <v>5.777</v>
       </c>
       <c r="E344">
         <v>1258</v>
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="G344">
-        <v>130277.746</v>
+        <v>130.277746</v>
       </c>
       <c r="H344">
         <v>70.07413053274828</v>
@@ -17567,7 +17567,7 @@
         <v>0.2507549518642467</v>
       </c>
       <c r="K344">
-        <v>0.0934276804989206</v>
+        <v>0.5397317102422643</v>
       </c>
       <c r="L344">
         <v>11.696</v>
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="D345">
-        <v>2524</v>
+        <v>2.524</v>
       </c>
       <c r="E345">
         <v>5453</v>
@@ -17617,7 +17617,7 @@
         <v>67.2775760333151</v>
       </c>
       <c r="K345">
-        <v>0.09342768049892058</v>
+        <v>0.2358114655792756</v>
       </c>
       <c r="L345">
         <v>0</v>
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="D346">
-        <v>2852</v>
+        <v>2.852</v>
       </c>
       <c r="E346">
         <v>9707</v>
@@ -17655,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="G346">
-        <v>15372.545</v>
+        <v>15.372545</v>
       </c>
       <c r="H346">
         <v>69.01150565778711</v>
@@ -17667,7 +17667,7 @@
         <v>0.005667566307435781</v>
       </c>
       <c r="K346">
-        <v>0.0934276804989206</v>
+        <v>0.2664557447829215</v>
       </c>
       <c r="L346">
         <v>0</v>
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="D347">
-        <v>864</v>
+        <v>0.864</v>
       </c>
       <c r="E347">
         <v>689</v>
@@ -17717,7 +17717,7 @@
         <v>46.3013079148076</v>
       </c>
       <c r="K347">
-        <v>0.09342768049892058</v>
+        <v>0.0807215159510674</v>
       </c>
       <c r="L347">
         <v>18.604</v>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="D348">
-        <v>977</v>
+        <v>0.977</v>
       </c>
       <c r="E348">
         <v>555</v>
@@ -17767,7 +17767,7 @@
         <v>51.57513667962363</v>
       </c>
       <c r="K348">
-        <v>0.09342768049892058</v>
+        <v>0.09127884384744542</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="D349">
-        <v>1098</v>
+        <v>1.098</v>
       </c>
       <c r="E349">
         <v>1137</v>
@@ -17817,7 +17817,7 @@
         <v>47.53208347441155</v>
       </c>
       <c r="K349">
-        <v>0.0934276804989206</v>
+        <v>0.1025835931878148</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="D350">
-        <v>2956</v>
+        <v>2.956</v>
       </c>
       <c r="E350">
         <v>927</v>
@@ -17855,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="G350">
-        <v>72064.41499999999</v>
+        <v>72.064415</v>
       </c>
       <c r="H350">
         <v>70.97807498919296</v>
@@ -17867,7 +17867,7 @@
         <v>0.4408412975060949</v>
       </c>
       <c r="K350">
-        <v>0.09342768049892058</v>
+        <v>0.2761722235548092</v>
       </c>
       <c r="L350">
         <v>107.475</v>
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="D351">
-        <v>3896</v>
+        <v>3.896</v>
       </c>
       <c r="E351">
         <v>4874</v>
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="G351">
-        <v>108926.499</v>
+        <v>108.926499</v>
       </c>
       <c r="H351">
         <v>70.05217523406424</v>
@@ -17917,7 +17917,7 @@
         <v>0.845119723989503</v>
       </c>
       <c r="K351">
-        <v>0.0934276804989206</v>
+        <v>0.3639942432237946</v>
       </c>
       <c r="L351">
         <v>32.815</v>
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="D352">
-        <v>1238</v>
+        <v>1.238</v>
       </c>
       <c r="E352">
         <v>3461</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="G352">
-        <v>28750.615</v>
+        <v>28.750615</v>
       </c>
       <c r="H352">
         <v>70.94534999149137</v>
@@ -17967,7 +17967,7 @@
         <v>0.01429342766615178</v>
       </c>
       <c r="K352">
-        <v>0.0934276804989206</v>
+        <v>0.1156634684576637</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="D353">
-        <v>1051</v>
+        <v>1.051</v>
       </c>
       <c r="E353">
         <v>1417</v>
@@ -18017,7 +18017,7 @@
         <v>21.01361182730778</v>
       </c>
       <c r="K353">
-        <v>0.09342768049892058</v>
+        <v>0.09819249220436554</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="D354">
-        <v>2798</v>
+        <v>2.798</v>
       </c>
       <c r="E354">
         <v>4051</v>
@@ -18067,7 +18067,7 @@
         <v>60.88051478400918</v>
       </c>
       <c r="K354">
-        <v>0.09342768049892058</v>
+        <v>0.2614106500359798</v>
       </c>
       <c r="L354">
         <v>5.99</v>
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="D355">
-        <v>890</v>
+        <v>0.89</v>
       </c>
       <c r="E355">
         <v>1122</v>
@@ -18117,7 +18117,7 @@
         <v>34.06004421687472</v>
       </c>
       <c r="K355">
-        <v>0.09342768049892058</v>
+        <v>0.08315063564403932</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="D356">
-        <v>2107</v>
+        <v>2.107</v>
       </c>
       <c r="E356">
         <v>1435</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="G356">
-        <v>43982.126</v>
+        <v>43.98212599999999</v>
       </c>
       <c r="H356">
         <v>70.63506947210109</v>
@@ -18167,7 +18167,7 @@
         <v>0.2907361695235909</v>
       </c>
       <c r="K356">
-        <v>0.09342768049892058</v>
+        <v>0.1968521228112257</v>
       </c>
       <c r="L356">
         <v>0</v>
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="D357">
-        <v>1982</v>
+        <v>1.982</v>
       </c>
       <c r="E357">
         <v>601</v>
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="G357">
-        <v>34096.726</v>
+        <v>34.096726</v>
       </c>
       <c r="H357">
         <v>70.37042773102679</v>
@@ -18217,7 +18217,7 @@
         <v>0.4677908345481162</v>
       </c>
       <c r="K357">
-        <v>0.09342768049892058</v>
+        <v>0.1851736627488606</v>
       </c>
       <c r="L357">
         <v>0</v>
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="D358">
-        <v>868</v>
+        <v>0.868</v>
       </c>
       <c r="E358">
         <v>1437</v>
@@ -18267,7 +18267,7 @@
         <v>45.77389860906351</v>
       </c>
       <c r="K358">
-        <v>0.0934276804989206</v>
+        <v>0.08109522667306307</v>
       </c>
       <c r="L358">
         <v>0</v>

--- a/Data/Vinmonopolet/demand_data.xlsx
+++ b/Data/Vinmonopolet/demand_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N358"/>
+  <dimension ref="A1:O358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,11 @@
           <t>Spread</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,9 @@
       <c r="N2">
         <v>1.631</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +536,9 @@
       <c r="N3">
         <v>2.522</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -578,6 +589,9 @@
       <c r="N4">
         <v>5.969</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,6 +642,9 @@
       <c r="N5">
         <v>0.742</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +695,9 @@
       <c r="N6">
         <v>4.525</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +748,9 @@
       <c r="N7">
         <v>0.9429999999999999</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +801,9 @@
       <c r="N8">
         <v>1.217</v>
       </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -828,6 +854,9 @@
       <c r="N9">
         <v>1.32</v>
       </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -878,6 +907,9 @@
       <c r="N10">
         <v>3.831</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -928,6 +960,9 @@
       <c r="N11">
         <v>3.607</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -978,6 +1013,9 @@
       <c r="N12">
         <v>2.227</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1028,6 +1066,9 @@
       <c r="N13">
         <v>1.228</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1078,6 +1119,9 @@
       <c r="N14">
         <v>2.685</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1128,6 +1172,9 @@
       <c r="N15">
         <v>1.456</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1178,6 +1225,9 @@
       <c r="N16">
         <v>2.472</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1228,6 +1278,9 @@
       <c r="N17">
         <v>2.027</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1331,9 @@
       <c r="N18">
         <v>2.671</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1328,6 +1384,9 @@
       <c r="N19">
         <v>0.381</v>
       </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1378,6 +1437,9 @@
       <c r="N20">
         <v>0.146</v>
       </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1428,6 +1490,9 @@
       <c r="N21">
         <v>0.382</v>
       </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1478,6 +1543,9 @@
       <c r="N22">
         <v>4.29</v>
       </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1528,6 +1596,9 @@
       <c r="N23">
         <v>4.955</v>
       </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1578,6 +1649,9 @@
       <c r="N24">
         <v>0.215</v>
       </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1628,6 +1702,9 @@
       <c r="N25">
         <v>4.894</v>
       </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1678,6 +1755,9 @@
       <c r="N26">
         <v>2.108</v>
       </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1728,6 +1808,9 @@
       <c r="N27">
         <v>5.661</v>
       </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1778,6 +1861,9 @@
       <c r="N28">
         <v>4.079</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1828,6 +1914,9 @@
       <c r="N29">
         <v>2.54</v>
       </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1878,6 +1967,9 @@
       <c r="N30">
         <v>1.269</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1928,6 +2020,9 @@
       <c r="N31">
         <v>2.899</v>
       </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1978,6 +2073,9 @@
       <c r="N32">
         <v>1.445</v>
       </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2028,6 +2126,9 @@
       <c r="N33">
         <v>0.621</v>
       </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2078,6 +2179,9 @@
       <c r="N34">
         <v>2.94</v>
       </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2128,6 +2232,9 @@
       <c r="N35">
         <v>1.536</v>
       </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2178,6 +2285,9 @@
       <c r="N36">
         <v>1.895</v>
       </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2228,6 +2338,9 @@
       <c r="N37">
         <v>0.586</v>
       </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2278,6 +2391,9 @@
       <c r="N38">
         <v>1.491</v>
       </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2328,6 +2444,9 @@
       <c r="N39">
         <v>2.658</v>
       </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2378,6 +2497,9 @@
       <c r="N40">
         <v>2.527</v>
       </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2428,6 +2550,9 @@
       <c r="N41">
         <v>1.921</v>
       </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2478,6 +2603,9 @@
       <c r="N42">
         <v>4.264</v>
       </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2528,6 +2656,9 @@
       <c r="N43">
         <v>2.063</v>
       </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2578,6 +2709,9 @@
       <c r="N44">
         <v>2</v>
       </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2628,6 +2762,9 @@
       <c r="N45">
         <v>2.314</v>
       </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2678,6 +2815,9 @@
       <c r="N46">
         <v>3.081</v>
       </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2728,6 +2868,9 @@
       <c r="N47">
         <v>2.158</v>
       </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2778,6 +2921,9 @@
       <c r="N48">
         <v>2.768</v>
       </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2828,6 +2974,9 @@
       <c r="N49">
         <v>2.971</v>
       </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2878,6 +3027,9 @@
       <c r="N50">
         <v>1.906</v>
       </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2928,6 +3080,9 @@
       <c r="N51">
         <v>6.348</v>
       </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2978,6 +3133,9 @@
       <c r="N52">
         <v>3.096</v>
       </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3028,6 +3186,9 @@
       <c r="N53">
         <v>4.325</v>
       </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3078,6 +3239,9 @@
       <c r="N54">
         <v>3.327</v>
       </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3128,6 +3292,9 @@
       <c r="N55">
         <v>0.872</v>
       </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3178,6 +3345,9 @@
       <c r="N56">
         <v>1.028</v>
       </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3228,6 +3398,9 @@
       <c r="N57">
         <v>2.156</v>
       </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3278,6 +3451,9 @@
       <c r="N58">
         <v>0.901</v>
       </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3328,6 +3504,9 @@
       <c r="N59">
         <v>0.48</v>
       </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3378,6 +3557,9 @@
       <c r="N60">
         <v>0.979</v>
       </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3428,6 +3610,9 @@
       <c r="N61">
         <v>1.359</v>
       </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3478,6 +3663,9 @@
       <c r="N62">
         <v>1.577</v>
       </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3528,6 +3716,9 @@
       <c r="N63">
         <v>3.403</v>
       </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3578,6 +3769,9 @@
       <c r="N64">
         <v>0.587</v>
       </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3628,6 +3822,9 @@
       <c r="N65">
         <v>0.742</v>
       </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3678,6 +3875,9 @@
       <c r="N66">
         <v>1.157</v>
       </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3728,6 +3928,9 @@
       <c r="N67">
         <v>0.419</v>
       </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3778,6 +3981,9 @@
       <c r="N68">
         <v>1.76</v>
       </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3828,6 +4034,9 @@
       <c r="N69">
         <v>4.314</v>
       </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3878,6 +4087,9 @@
       <c r="N70">
         <v>1.361</v>
       </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3928,6 +4140,9 @@
       <c r="N71">
         <v>0.056</v>
       </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3978,6 +4193,9 @@
       <c r="N72">
         <v>1.139</v>
       </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4028,6 +4246,9 @@
       <c r="N73">
         <v>2.616</v>
       </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4078,6 +4299,9 @@
       <c r="N74">
         <v>1.323</v>
       </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4128,6 +4352,9 @@
       <c r="N75">
         <v>1.061</v>
       </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4178,6 +4405,9 @@
       <c r="N76">
         <v>1.631</v>
       </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4228,6 +4458,9 @@
       <c r="N77">
         <v>2.426</v>
       </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4278,6 +4511,9 @@
       <c r="N78">
         <v>1.001</v>
       </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4328,6 +4564,9 @@
       <c r="N79">
         <v>2.427</v>
       </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4378,6 +4617,9 @@
       <c r="N80">
         <v>0.358</v>
       </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4428,6 +4670,9 @@
       <c r="N81">
         <v>0.646</v>
       </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4478,6 +4723,9 @@
       <c r="N82">
         <v>0.139</v>
       </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4528,6 +4776,9 @@
       <c r="N83">
         <v>0.08500000000000001</v>
       </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4578,6 +4829,9 @@
       <c r="N84">
         <v>1.227</v>
       </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4628,6 +4882,9 @@
       <c r="N85">
         <v>4.192</v>
       </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4678,6 +4935,9 @@
       <c r="N86">
         <v>2.194</v>
       </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4728,6 +4988,9 @@
       <c r="N87">
         <v>2.028</v>
       </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4778,6 +5041,9 @@
       <c r="N88">
         <v>1.707</v>
       </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4828,6 +5094,9 @@
       <c r="N89">
         <v>2.022</v>
       </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4878,6 +5147,9 @@
       <c r="N90">
         <v>3.331</v>
       </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4928,6 +5200,9 @@
       <c r="N91">
         <v>1.6</v>
       </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4978,6 +5253,9 @@
       <c r="N92">
         <v>0.262</v>
       </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5028,6 +5306,9 @@
       <c r="N93">
         <v>1.857</v>
       </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5078,6 +5359,9 @@
       <c r="N94">
         <v>4.007</v>
       </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5128,6 +5412,9 @@
       <c r="N95">
         <v>1.921</v>
       </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5178,6 +5465,9 @@
       <c r="N96">
         <v>5.253</v>
       </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5228,6 +5518,9 @@
       <c r="N97">
         <v>5.377</v>
       </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5278,6 +5571,9 @@
       <c r="N98">
         <v>1.787</v>
       </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5328,6 +5624,9 @@
       <c r="N99">
         <v>1.748</v>
       </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5378,6 +5677,9 @@
       <c r="N100">
         <v>1.902</v>
       </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5428,6 +5730,9 @@
       <c r="N101">
         <v>1.967</v>
       </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5478,6 +5783,9 @@
       <c r="N102">
         <v>10.072</v>
       </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5528,6 +5836,9 @@
       <c r="N103">
         <v>3.095</v>
       </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5578,6 +5889,9 @@
       <c r="N104">
         <v>1.798</v>
       </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5628,6 +5942,9 @@
       <c r="N105">
         <v>1.346</v>
       </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5678,6 +5995,9 @@
       <c r="N106">
         <v>1.245</v>
       </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5728,6 +6048,9 @@
       <c r="N107">
         <v>4.984</v>
       </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5778,6 +6101,9 @@
       <c r="N108">
         <v>6.483</v>
       </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5828,6 +6154,9 @@
       <c r="N109">
         <v>3.494</v>
       </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5878,6 +6207,9 @@
       <c r="N110">
         <v>3.413</v>
       </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5928,6 +6260,9 @@
       <c r="N111">
         <v>1.897</v>
       </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5978,6 +6313,9 @@
       <c r="N112">
         <v>2.462</v>
       </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6028,6 +6366,9 @@
       <c r="N113">
         <v>2.883</v>
       </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6078,6 +6419,9 @@
       <c r="N114">
         <v>3.063</v>
       </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6128,6 +6472,9 @@
       <c r="N115">
         <v>2.28</v>
       </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6178,6 +6525,9 @@
       <c r="N116">
         <v>0.285</v>
       </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6228,6 +6578,9 @@
       <c r="N117">
         <v>0.5679999999999999</v>
       </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6278,6 +6631,9 @@
       <c r="N118">
         <v>7.086</v>
       </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6328,6 +6684,9 @@
       <c r="N119">
         <v>7.343</v>
       </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6378,6 +6737,9 @@
       <c r="N120">
         <v>1.747</v>
       </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6428,6 +6790,9 @@
       <c r="N121">
         <v>1.534</v>
       </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6478,6 +6843,9 @@
       <c r="N122">
         <v>3.274</v>
       </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6528,6 +6896,9 @@
       <c r="N123">
         <v>1.796</v>
       </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6578,6 +6949,9 @@
       <c r="N124">
         <v>3.246</v>
       </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6628,6 +7002,9 @@
       <c r="N125">
         <v>4.736</v>
       </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6678,6 +7055,9 @@
       <c r="N126">
         <v>1.867</v>
       </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6728,6 +7108,9 @@
       <c r="N127">
         <v>2.322</v>
       </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6778,6 +7161,9 @@
       <c r="N128">
         <v>3.739</v>
       </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6828,6 +7214,9 @@
       <c r="N129">
         <v>8.193</v>
       </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6878,6 +7267,9 @@
       <c r="N130">
         <v>2.439</v>
       </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6928,6 +7320,9 @@
       <c r="N131">
         <v>4.058</v>
       </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6978,6 +7373,9 @@
       <c r="N132">
         <v>3.658</v>
       </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7028,6 +7426,9 @@
       <c r="N133">
         <v>4.137</v>
       </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7078,6 +7479,9 @@
       <c r="N134">
         <v>1.278</v>
       </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7128,6 +7532,9 @@
       <c r="N135">
         <v>1.115</v>
       </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7178,6 +7585,9 @@
       <c r="N136">
         <v>1.156</v>
       </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7228,6 +7638,9 @@
       <c r="N137">
         <v>1.637</v>
       </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7278,6 +7691,9 @@
       <c r="N138">
         <v>1.047</v>
       </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7328,6 +7744,9 @@
       <c r="N139">
         <v>1.983</v>
       </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7378,6 +7797,9 @@
       <c r="N140">
         <v>1.613</v>
       </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7428,6 +7850,9 @@
       <c r="N141">
         <v>3.004</v>
       </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7478,6 +7903,9 @@
       <c r="N142">
         <v>1.769</v>
       </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7528,6 +7956,9 @@
       <c r="N143">
         <v>1.032</v>
       </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7578,6 +8009,9 @@
       <c r="N144">
         <v>1.981</v>
       </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7628,6 +8062,9 @@
       <c r="N145">
         <v>4.601</v>
       </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7678,6 +8115,9 @@
       <c r="N146">
         <v>3.605</v>
       </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7728,6 +8168,9 @@
       <c r="N147">
         <v>3.655</v>
       </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7778,6 +8221,9 @@
       <c r="N148">
         <v>6.729</v>
       </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7828,6 +8274,9 @@
       <c r="N149">
         <v>15.002</v>
       </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7878,6 +8327,9 @@
       <c r="N150">
         <v>3.188</v>
       </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7928,6 +8380,9 @@
       <c r="N151">
         <v>7.532</v>
       </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7978,6 +8433,9 @@
       <c r="N152">
         <v>3.444</v>
       </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8028,6 +8486,9 @@
       <c r="N153">
         <v>4.828</v>
       </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8078,6 +8539,9 @@
       <c r="N154">
         <v>3.701</v>
       </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8128,6 +8592,9 @@
       <c r="N155">
         <v>3.305</v>
       </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8178,6 +8645,9 @@
       <c r="N156">
         <v>5.112</v>
       </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8228,6 +8698,9 @@
       <c r="N157">
         <v>2.256</v>
       </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8278,6 +8751,9 @@
       <c r="N158">
         <v>5.387</v>
       </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8328,6 +8804,9 @@
       <c r="N159">
         <v>3.628</v>
       </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8378,6 +8857,9 @@
       <c r="N160">
         <v>2.171</v>
       </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8428,6 +8910,9 @@
       <c r="N161">
         <v>1.264</v>
       </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8478,6 +8963,9 @@
       <c r="N162">
         <v>1.567</v>
       </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8528,6 +9016,9 @@
       <c r="N163">
         <v>1.054</v>
       </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8578,6 +9069,9 @@
       <c r="N164">
         <v>0.976</v>
       </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8628,6 +9122,9 @@
       <c r="N165">
         <v>2.715</v>
       </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8678,6 +9175,9 @@
       <c r="N166">
         <v>1.671</v>
       </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8728,6 +9228,9 @@
       <c r="N167">
         <v>1.023</v>
       </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8778,6 +9281,9 @@
       <c r="N168">
         <v>1.203</v>
       </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8828,6 +9334,9 @@
       <c r="N169">
         <v>1.339</v>
       </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8878,6 +9387,9 @@
       <c r="N170">
         <v>1.752</v>
       </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8928,6 +9440,9 @@
       <c r="N171">
         <v>1.51</v>
       </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8978,6 +9493,9 @@
       <c r="N172">
         <v>1.373</v>
       </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9028,6 +9546,9 @@
       <c r="N173">
         <v>1.732</v>
       </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9078,6 +9599,9 @@
       <c r="N174">
         <v>2.16</v>
       </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9128,6 +9652,9 @@
       <c r="N175">
         <v>2.822</v>
       </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9178,6 +9705,9 @@
       <c r="N176">
         <v>1.948</v>
       </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9228,6 +9758,9 @@
       <c r="N177">
         <v>2.29</v>
       </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9278,6 +9811,9 @@
       <c r="N178">
         <v>2.061</v>
       </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9328,6 +9864,9 @@
       <c r="N179">
         <v>3.26</v>
       </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9378,6 +9917,9 @@
       <c r="N180">
         <v>7.758</v>
       </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9428,6 +9970,9 @@
       <c r="N181">
         <v>3.365</v>
       </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9478,6 +10023,9 @@
       <c r="N182">
         <v>6.744</v>
       </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9528,6 +10076,9 @@
       <c r="N183">
         <v>3.452</v>
       </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9578,6 +10129,9 @@
       <c r="N184">
         <v>3.565</v>
       </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9628,6 +10182,9 @@
       <c r="N185">
         <v>2.22</v>
       </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9678,6 +10235,9 @@
       <c r="N186">
         <v>1.138</v>
       </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9728,6 +10288,9 @@
       <c r="N187">
         <v>2.957</v>
       </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9778,6 +10341,9 @@
       <c r="N188">
         <v>1.528</v>
       </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9828,6 +10394,9 @@
       <c r="N189">
         <v>2.29</v>
       </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9878,6 +10447,9 @@
       <c r="N190">
         <v>1.411</v>
       </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9928,6 +10500,9 @@
       <c r="N191">
         <v>1.411</v>
       </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9978,6 +10553,9 @@
       <c r="N192">
         <v>6.418</v>
       </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10028,6 +10606,9 @@
       <c r="N193">
         <v>6.935</v>
       </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10078,6 +10659,9 @@
       <c r="N194">
         <v>7.88</v>
       </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10128,6 +10712,9 @@
       <c r="N195">
         <v>8.433999999999999</v>
       </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10178,6 +10765,9 @@
       <c r="N196">
         <v>3.347</v>
       </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10228,6 +10818,9 @@
       <c r="N197">
         <v>1.546</v>
       </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10278,6 +10871,9 @@
       <c r="N198">
         <v>5.044</v>
       </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10328,6 +10924,9 @@
       <c r="N199">
         <v>3.374</v>
       </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10378,6 +10977,9 @@
       <c r="N200">
         <v>0.835</v>
       </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10428,6 +11030,9 @@
       <c r="N201">
         <v>2.224</v>
       </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10478,6 +11083,9 @@
       <c r="N202">
         <v>2.423</v>
       </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10528,6 +11136,9 @@
       <c r="N203">
         <v>2.433</v>
       </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10578,6 +11189,9 @@
       <c r="N204">
         <v>2.48</v>
       </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10628,6 +11242,9 @@
       <c r="N205">
         <v>4.881</v>
       </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10678,6 +11295,9 @@
       <c r="N206">
         <v>1.491</v>
       </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10728,6 +11348,9 @@
       <c r="N207">
         <v>1.63</v>
       </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10778,6 +11401,9 @@
       <c r="N208">
         <v>1.811</v>
       </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10828,6 +11454,9 @@
       <c r="N209">
         <v>1.641</v>
       </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10878,6 +11507,9 @@
       <c r="N210">
         <v>0.914</v>
       </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10928,6 +11560,9 @@
       <c r="N211">
         <v>0.881</v>
       </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10978,6 +11613,9 @@
       <c r="N212">
         <v>1.644</v>
       </c>
+      <c r="O212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11028,6 +11666,9 @@
       <c r="N213">
         <v>2.582</v>
       </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11078,6 +11719,9 @@
       <c r="N214">
         <v>2.198</v>
       </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11128,6 +11772,9 @@
       <c r="N215">
         <v>3.201</v>
       </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11178,6 +11825,9 @@
       <c r="N216">
         <v>5.589</v>
       </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11228,6 +11878,9 @@
       <c r="N217">
         <v>5.706</v>
       </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11278,6 +11931,9 @@
       <c r="N218">
         <v>7.521</v>
       </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11328,6 +11984,9 @@
       <c r="N219">
         <v>3.172</v>
       </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11378,6 +12037,9 @@
       <c r="N220">
         <v>2.464</v>
       </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11428,6 +12090,9 @@
       <c r="N221">
         <v>1.47</v>
       </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11478,6 +12143,9 @@
       <c r="N222">
         <v>1.312</v>
       </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11528,6 +12196,9 @@
       <c r="N223">
         <v>3.176</v>
       </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11578,6 +12249,9 @@
       <c r="N224">
         <v>2.833</v>
       </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11628,6 +12302,9 @@
       <c r="N225">
         <v>2.785</v>
       </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11678,6 +12355,9 @@
       <c r="N226">
         <v>2.429</v>
       </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11728,6 +12408,9 @@
       <c r="N227">
         <v>1.098</v>
       </c>
+      <c r="O227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11778,6 +12461,9 @@
       <c r="N228">
         <v>1.38</v>
       </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11828,6 +12514,9 @@
       <c r="N229">
         <v>1.139</v>
       </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11878,6 +12567,9 @@
       <c r="N230">
         <v>0.577</v>
       </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11928,6 +12620,9 @@
       <c r="N231">
         <v>1.204</v>
       </c>
+      <c r="O231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11978,6 +12673,9 @@
       <c r="N232">
         <v>0.334</v>
       </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12028,6 +12726,9 @@
       <c r="N233">
         <v>2.532</v>
       </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12078,6 +12779,9 @@
       <c r="N234">
         <v>0.923</v>
       </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12128,6 +12832,9 @@
       <c r="N235">
         <v>4.606</v>
       </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12178,6 +12885,9 @@
       <c r="N236">
         <v>1.538</v>
       </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12228,6 +12938,9 @@
       <c r="N237">
         <v>2.825</v>
       </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12278,6 +12991,9 @@
       <c r="N238">
         <v>0.97</v>
       </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12328,6 +13044,9 @@
       <c r="N239">
         <v>5.593</v>
       </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12378,6 +13097,9 @@
       <c r="N240">
         <v>2.848</v>
       </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12428,6 +13150,9 @@
       <c r="N241">
         <v>2.187</v>
       </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12478,6 +13203,9 @@
       <c r="N242">
         <v>3.505</v>
       </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12528,6 +13256,9 @@
       <c r="N243">
         <v>4.706</v>
       </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12578,6 +13309,9 @@
       <c r="N244">
         <v>1.057</v>
       </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12628,6 +13362,9 @@
       <c r="N245">
         <v>1.383</v>
       </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12678,6 +13415,9 @@
       <c r="N246">
         <v>2.053</v>
       </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12728,6 +13468,9 @@
       <c r="N247">
         <v>4.555</v>
       </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12778,6 +13521,9 @@
       <c r="N248">
         <v>3.396</v>
       </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12828,6 +13574,9 @@
       <c r="N249">
         <v>0.394</v>
       </c>
+      <c r="O249">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12878,6 +13627,9 @@
       <c r="N250">
         <v>0.5580000000000001</v>
       </c>
+      <c r="O250">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12928,6 +13680,9 @@
       <c r="N251">
         <v>6.1</v>
       </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12978,6 +13733,9 @@
       <c r="N252">
         <v>2.478</v>
       </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13028,6 +13786,9 @@
       <c r="N253">
         <v>1.441</v>
       </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13078,6 +13839,9 @@
       <c r="N254">
         <v>5.943</v>
       </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13128,6 +13892,9 @@
       <c r="N255">
         <v>2.795</v>
       </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13178,6 +13945,9 @@
       <c r="N256">
         <v>8.981</v>
       </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13228,6 +13998,9 @@
       <c r="N257">
         <v>2.74</v>
       </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13278,6 +14051,9 @@
       <c r="N258">
         <v>1.001</v>
       </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13328,6 +14104,9 @@
       <c r="N259">
         <v>0.383</v>
       </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13378,6 +14157,9 @@
       <c r="N260">
         <v>3.93</v>
       </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13428,6 +14210,9 @@
       <c r="N261">
         <v>12.166</v>
       </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13478,6 +14263,9 @@
       <c r="N262">
         <v>1.791</v>
       </c>
+      <c r="O262">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13528,6 +14316,9 @@
       <c r="N263">
         <v>0.128</v>
       </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13578,6 +14369,9 @@
       <c r="N264">
         <v>1.694</v>
       </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13628,6 +14422,9 @@
       <c r="N265">
         <v>1.605</v>
       </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13678,6 +14475,9 @@
       <c r="N266">
         <v>0.466</v>
       </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13728,6 +14528,9 @@
       <c r="N267">
         <v>1.264</v>
       </c>
+      <c r="O267">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13778,6 +14581,9 @@
       <c r="N268">
         <v>1.398</v>
       </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13828,6 +14634,9 @@
       <c r="N269">
         <v>1.328</v>
       </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13878,6 +14687,9 @@
       <c r="N270">
         <v>2.85</v>
       </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13928,6 +14740,9 @@
       <c r="N271">
         <v>0.705</v>
       </c>
+      <c r="O271">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13978,6 +14793,9 @@
       <c r="N272">
         <v>0.984</v>
       </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14028,6 +14846,9 @@
       <c r="N273">
         <v>0.311</v>
       </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14078,6 +14899,9 @@
       <c r="N274">
         <v>2.913</v>
       </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14128,6 +14952,9 @@
       <c r="N275">
         <v>2.253</v>
       </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14178,6 +15005,9 @@
       <c r="N276">
         <v>1.357</v>
       </c>
+      <c r="O276">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14228,6 +15058,9 @@
       <c r="N277">
         <v>6.956</v>
       </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14278,6 +15111,9 @@
       <c r="N278">
         <v>1.877</v>
       </c>
+      <c r="O278">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14328,6 +15164,9 @@
       <c r="N279">
         <v>4.414</v>
       </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14378,6 +15217,9 @@
       <c r="N280">
         <v>2.985</v>
       </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14428,6 +15270,9 @@
       <c r="N281">
         <v>3.362</v>
       </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -14478,6 +15323,9 @@
       <c r="N282">
         <v>6.433</v>
       </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -14528,6 +15376,9 @@
       <c r="N283">
         <v>7.91</v>
       </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14578,6 +15429,9 @@
       <c r="N284">
         <v>4.08</v>
       </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14628,6 +15482,9 @@
       <c r="N285">
         <v>3.628</v>
       </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14678,6 +15535,9 @@
       <c r="N286">
         <v>0.897</v>
       </c>
+      <c r="O286">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14728,6 +15588,9 @@
       <c r="N287">
         <v>2.749</v>
       </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14778,6 +15641,9 @@
       <c r="N288">
         <v>1.479</v>
       </c>
+      <c r="O288">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14828,6 +15694,9 @@
       <c r="N289">
         <v>1.773</v>
       </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14878,6 +15747,9 @@
       <c r="N290">
         <v>1.41</v>
       </c>
+      <c r="O290">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -14928,6 +15800,9 @@
       <c r="N291">
         <v>3.526</v>
       </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -14978,6 +15853,9 @@
       <c r="N292">
         <v>6.039</v>
       </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15028,6 +15906,9 @@
       <c r="N293">
         <v>2.857</v>
       </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15078,6 +15959,9 @@
       <c r="N294">
         <v>1.763</v>
       </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15128,6 +16012,9 @@
       <c r="N295">
         <v>2.863</v>
       </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15178,6 +16065,9 @@
       <c r="N296">
         <v>0.773</v>
       </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15228,6 +16118,9 @@
       <c r="N297">
         <v>1.407</v>
       </c>
+      <c r="O297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15278,6 +16171,9 @@
       <c r="N298">
         <v>6.675</v>
       </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15328,6 +16224,9 @@
       <c r="N299">
         <v>2.641</v>
       </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15378,6 +16277,9 @@
       <c r="N300">
         <v>6.564</v>
       </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -15428,6 +16330,9 @@
       <c r="N301">
         <v>4.541</v>
       </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -15478,6 +16383,9 @@
       <c r="N302">
         <v>1.456</v>
       </c>
+      <c r="O302">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -15528,6 +16436,9 @@
       <c r="N303">
         <v>1.081</v>
       </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -15578,6 +16489,9 @@
       <c r="N304">
         <v>0.202</v>
       </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15628,6 +16542,9 @@
       <c r="N305">
         <v>0.589</v>
       </c>
+      <c r="O305">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -15678,6 +16595,9 @@
       <c r="N306">
         <v>1.232</v>
       </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15728,6 +16648,9 @@
       <c r="N307">
         <v>0.852</v>
       </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15778,6 +16701,9 @@
       <c r="N308">
         <v>1.97</v>
       </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -15828,6 +16754,9 @@
       <c r="N309">
         <v>0.586</v>
       </c>
+      <c r="O309">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -15878,6 +16807,9 @@
       <c r="N310">
         <v>0.601</v>
       </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -15928,6 +16860,9 @@
       <c r="N311">
         <v>3.717</v>
       </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -15978,6 +16913,9 @@
       <c r="N312">
         <v>6.088</v>
       </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16028,6 +16966,9 @@
       <c r="N313">
         <v>3.286</v>
       </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16078,6 +17019,9 @@
       <c r="N314">
         <v>3.445</v>
       </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16128,6 +17072,9 @@
       <c r="N315">
         <v>5.017</v>
       </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16178,6 +17125,9 @@
       <c r="N316">
         <v>2.952</v>
       </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16228,6 +17178,9 @@
       <c r="N317">
         <v>6.655</v>
       </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16278,6 +17231,9 @@
       <c r="N318">
         <v>4.171</v>
       </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -16328,6 +17284,9 @@
       <c r="N319">
         <v>1.232</v>
       </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -16378,6 +17337,9 @@
       <c r="N320">
         <v>6.911</v>
       </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -16428,6 +17390,9 @@
       <c r="N321">
         <v>3.577</v>
       </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -16478,6 +17443,9 @@
       <c r="N322">
         <v>1.061</v>
       </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -16528,6 +17496,9 @@
       <c r="N323">
         <v>2.631</v>
       </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -16578,6 +17549,9 @@
       <c r="N324">
         <v>0.848</v>
       </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -16628,6 +17602,9 @@
       <c r="N325">
         <v>1.07</v>
       </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -16678,6 +17655,9 @@
       <c r="N326">
         <v>0.6860000000000001</v>
       </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -16728,6 +17708,9 @@
       <c r="N327">
         <v>1.445</v>
       </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -16778,6 +17761,9 @@
       <c r="N328">
         <v>1.274</v>
       </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -16828,6 +17814,9 @@
       <c r="N329">
         <v>2.854</v>
       </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -16878,6 +17867,9 @@
       <c r="N330">
         <v>1.538</v>
       </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -16928,6 +17920,9 @@
       <c r="N331">
         <v>1.073</v>
       </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -16978,6 +17973,9 @@
       <c r="N332">
         <v>6.834</v>
       </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17028,6 +18026,9 @@
       <c r="N333">
         <v>3.931</v>
       </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17078,6 +18079,9 @@
       <c r="N334">
         <v>1.717</v>
       </c>
+      <c r="O334">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17128,6 +18132,9 @@
       <c r="N335">
         <v>1.745</v>
       </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17178,6 +18185,9 @@
       <c r="N336">
         <v>1.285</v>
       </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -17228,6 +18238,9 @@
       <c r="N337">
         <v>1.44</v>
       </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17278,6 +18291,9 @@
       <c r="N338">
         <v>0.336</v>
       </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17328,6 +18344,9 @@
       <c r="N339">
         <v>2.052</v>
       </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17378,6 +18397,9 @@
       <c r="N340">
         <v>0.742</v>
       </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17428,6 +18450,9 @@
       <c r="N341">
         <v>3.772</v>
       </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17478,6 +18503,9 @@
       <c r="N342">
         <v>1.222</v>
       </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17528,6 +18556,9 @@
       <c r="N343">
         <v>1.997</v>
       </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17578,6 +18609,9 @@
       <c r="N344">
         <v>0.452</v>
       </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17628,6 +18662,9 @@
       <c r="N345">
         <v>0.76</v>
       </c>
+      <c r="O345">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17678,6 +18715,9 @@
       <c r="N346">
         <v>1.36</v>
       </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17728,6 +18768,9 @@
       <c r="N347">
         <v>0.374</v>
       </c>
+      <c r="O347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17778,6 +18821,9 @@
       <c r="N348">
         <v>0.309</v>
       </c>
+      <c r="O348">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17828,6 +18874,9 @@
       <c r="N349">
         <v>0.194</v>
       </c>
+      <c r="O349">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17878,6 +18927,9 @@
       <c r="N350">
         <v>0.293</v>
       </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17928,6 +18980,9 @@
       <c r="N351">
         <v>1.636</v>
       </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -17978,6 +19033,9 @@
       <c r="N352">
         <v>0.375</v>
       </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -18028,6 +19086,9 @@
       <c r="N353">
         <v>0.132</v>
       </c>
+      <c r="O353">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18078,6 +19139,9 @@
       <c r="N354">
         <v>2.059</v>
       </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -18128,6 +19192,9 @@
       <c r="N355">
         <v>0.033</v>
       </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18178,6 +19245,9 @@
       <c r="N356">
         <v>0.003</v>
       </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18228,6 +19298,9 @@
       <c r="N357">
         <v>0.199</v>
       </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18277,6 +19350,9 @@
       </c>
       <c r="N358">
         <v>0.859</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
